--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="TS4" sheetId="6" r:id="rId6"/>
     <sheet name="Average Comparision" sheetId="7" r:id="rId7"/>
     <sheet name="Competitive Programming" sheetId="8" r:id="rId8"/>
+    <sheet name="Interview Preparation" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="321">
   <si>
     <t>Date</t>
   </si>
@@ -1332,6 +1333,18 @@
   </si>
   <si>
     <t>Learning New Ideas</t>
+  </si>
+  <si>
+    <t>All the gfg accounts on set</t>
+  </si>
+  <si>
+    <t>Interview Preparation</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firefox = gbgb1bgbg/gate        chrome = ganesh.btb142000/ppc       brave = </t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2699,6 +2712,10 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2708,6 +2725,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2719,29 +2759,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2757,15 +2789,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2775,16 +2798,7 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3154,9 +3168,9 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G5"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3223,13 +3237,13 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -3238,13 +3252,13 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2">
@@ -3253,11 +3267,11 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -3604,15 +3618,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="251" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="251"/>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="253"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -3636,15 +3650,15 @@
       <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="252" t="s">
+      <c r="I2" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="284"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="256"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="9">
@@ -9049,50 +9063,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="266" t="s">
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="273" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="267" t="s">
+      <c r="H1" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="268" t="s">
+      <c r="I1" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="268" t="s">
+      <c r="J1" s="259" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
+      <c r="A2" s="263"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
     </row>
     <row r="4" spans="1:10" ht="37.5">
       <c r="A4" s="15" t="s">
@@ -9113,9 +9127,9 @@
       <c r="F4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="17" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -10421,7 +10435,7 @@
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="253" t="s">
+      <c r="B53" s="268" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10448,7 +10462,7 @@
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="254"/>
+      <c r="B54" s="269"/>
       <c r="C54" s="27" t="s">
         <v>133</v>
       </c>
@@ -10473,7 +10487,7 @@
       <c r="A55" s="25">
         <v>51</v>
       </c>
-      <c r="B55" s="254"/>
+      <c r="B55" s="269"/>
       <c r="C55" s="27" t="s">
         <v>134</v>
       </c>
@@ -10498,7 +10512,7 @@
       <c r="A56" s="25">
         <v>52</v>
       </c>
-      <c r="B56" s="254"/>
+      <c r="B56" s="269"/>
       <c r="C56" s="27" t="s">
         <v>135</v>
       </c>
@@ -10523,7 +10537,7 @@
       <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="254"/>
+      <c r="B57" s="269"/>
       <c r="C57" s="27" t="s">
         <v>136</v>
       </c>
@@ -10548,7 +10562,7 @@
       <c r="A58" s="25">
         <v>54</v>
       </c>
-      <c r="B58" s="254"/>
+      <c r="B58" s="269"/>
       <c r="C58" s="27" t="s">
         <v>137</v>
       </c>
@@ -10573,7 +10587,7 @@
       <c r="A59" s="25">
         <v>55</v>
       </c>
-      <c r="B59" s="255"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="27" t="s">
         <v>138</v>
       </c>
@@ -10610,14 +10624,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="269" t="s">
+      <c r="A61" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="258"/>
-      <c r="C61" s="258"/>
-      <c r="D61" s="258"/>
-      <c r="E61" s="258"/>
-      <c r="F61" s="259"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="262"/>
       <c r="G61" s="37"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -10627,12 +10641,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="260"/>
-      <c r="B62" s="261"/>
-      <c r="C62" s="261"/>
-      <c r="D62" s="261"/>
-      <c r="E62" s="261"/>
-      <c r="F62" s="262"/>
+      <c r="A62" s="263"/>
+      <c r="B62" s="258"/>
+      <c r="C62" s="258"/>
+      <c r="D62" s="258"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="264"/>
       <c r="G62" s="37"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
@@ -10642,12 +10656,12 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="263"/>
-      <c r="B63" s="264"/>
-      <c r="C63" s="264"/>
-      <c r="D63" s="264"/>
-      <c r="E63" s="264"/>
-      <c r="F63" s="265"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="266"/>
+      <c r="C63" s="266"/>
+      <c r="D63" s="266"/>
+      <c r="E63" s="266"/>
+      <c r="F63" s="267"/>
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -10969,14 +10983,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="269" t="s">
+      <c r="A76" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="258"/>
-      <c r="C76" s="258"/>
-      <c r="D76" s="258"/>
-      <c r="E76" s="258"/>
-      <c r="F76" s="259"/>
+      <c r="B76" s="261"/>
+      <c r="C76" s="261"/>
+      <c r="D76" s="261"/>
+      <c r="E76" s="261"/>
+      <c r="F76" s="262"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -10986,12 +11000,12 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="260"/>
-      <c r="B77" s="261"/>
-      <c r="C77" s="261"/>
-      <c r="D77" s="261"/>
-      <c r="E77" s="261"/>
-      <c r="F77" s="262"/>
+      <c r="A77" s="263"/>
+      <c r="B77" s="258"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="258"/>
+      <c r="E77" s="258"/>
+      <c r="F77" s="264"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
@@ -11001,12 +11015,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="263"/>
-      <c r="B78" s="264"/>
-      <c r="C78" s="264"/>
-      <c r="D78" s="264"/>
-      <c r="E78" s="264"/>
-      <c r="F78" s="265"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="266"/>
+      <c r="C78" s="266"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="266"/>
+      <c r="F78" s="267"/>
       <c r="G78" s="37"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -11046,7 +11060,7 @@
       <c r="A80" s="48">
         <v>66</v>
       </c>
-      <c r="B80" s="256" t="s">
+      <c r="B80" s="271" t="s">
         <v>161</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -11073,7 +11087,7 @@
       <c r="A81" s="25">
         <v>67</v>
       </c>
-      <c r="B81" s="254"/>
+      <c r="B81" s="269"/>
       <c r="C81" s="27" t="s">
         <v>164</v>
       </c>
@@ -11098,7 +11112,7 @@
       <c r="A82" s="48">
         <v>68</v>
       </c>
-      <c r="B82" s="254"/>
+      <c r="B82" s="269"/>
       <c r="C82" s="50" t="s">
         <v>165</v>
       </c>
@@ -11123,7 +11137,7 @@
       <c r="A83" s="25">
         <v>69</v>
       </c>
-      <c r="B83" s="254"/>
+      <c r="B83" s="269"/>
       <c r="C83" s="27" t="s">
         <v>166</v>
       </c>
@@ -11148,7 +11162,7 @@
       <c r="A84" s="48">
         <v>70</v>
       </c>
-      <c r="B84" s="254"/>
+      <c r="B84" s="269"/>
       <c r="C84" s="50" t="s">
         <v>167</v>
       </c>
@@ -11173,7 +11187,7 @@
       <c r="A85" s="25">
         <v>71</v>
       </c>
-      <c r="B85" s="254"/>
+      <c r="B85" s="269"/>
       <c r="C85" s="27" t="s">
         <v>168</v>
       </c>
@@ -11198,7 +11212,7 @@
       <c r="A86" s="48">
         <v>72</v>
       </c>
-      <c r="B86" s="254"/>
+      <c r="B86" s="269"/>
       <c r="C86" s="50" t="s">
         <v>169</v>
       </c>
@@ -11223,7 +11237,7 @@
       <c r="A87" s="25">
         <v>73</v>
       </c>
-      <c r="B87" s="254"/>
+      <c r="B87" s="269"/>
       <c r="C87" s="27" t="s">
         <v>170</v>
       </c>
@@ -11248,7 +11262,7 @@
       <c r="A88" s="48">
         <v>74</v>
       </c>
-      <c r="B88" s="254"/>
+      <c r="B88" s="269"/>
       <c r="C88" s="50" t="s">
         <v>171</v>
       </c>
@@ -11273,7 +11287,7 @@
       <c r="A89" s="25">
         <v>75</v>
       </c>
-      <c r="B89" s="255"/>
+      <c r="B89" s="270"/>
       <c r="C89" s="27" t="s">
         <v>172</v>
       </c>
@@ -11310,14 +11324,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
-      <c r="A91" s="269" t="s">
+      <c r="A91" s="260" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="258"/>
-      <c r="C91" s="258"/>
-      <c r="D91" s="258"/>
-      <c r="E91" s="258"/>
-      <c r="F91" s="259"/>
+      <c r="B91" s="261"/>
+      <c r="C91" s="261"/>
+      <c r="D91" s="261"/>
+      <c r="E91" s="261"/>
+      <c r="F91" s="262"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -11327,12 +11341,12 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15">
-      <c r="A92" s="260"/>
-      <c r="B92" s="261"/>
-      <c r="C92" s="261"/>
-      <c r="D92" s="261"/>
-      <c r="E92" s="261"/>
-      <c r="F92" s="262"/>
+      <c r="A92" s="263"/>
+      <c r="B92" s="258"/>
+      <c r="C92" s="258"/>
+      <c r="D92" s="258"/>
+      <c r="E92" s="258"/>
+      <c r="F92" s="264"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
@@ -11342,12 +11356,12 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="263"/>
-      <c r="B93" s="264"/>
-      <c r="C93" s="264"/>
-      <c r="D93" s="264"/>
-      <c r="E93" s="264"/>
-      <c r="F93" s="265"/>
+      <c r="A93" s="265"/>
+      <c r="B93" s="266"/>
+      <c r="C93" s="266"/>
+      <c r="D93" s="266"/>
+      <c r="E93" s="266"/>
+      <c r="F93" s="267"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -11387,7 +11401,7 @@
       <c r="A95" s="48">
         <v>76</v>
       </c>
-      <c r="B95" s="256" t="s">
+      <c r="B95" s="271" t="s">
         <v>174</v>
       </c>
       <c r="C95" s="50" t="s">
@@ -11414,7 +11428,7 @@
       <c r="A96" s="25">
         <v>77</v>
       </c>
-      <c r="B96" s="254"/>
+      <c r="B96" s="269"/>
       <c r="C96" s="27" t="s">
         <v>176</v>
       </c>
@@ -11439,7 +11453,7 @@
       <c r="A97" s="48">
         <v>78</v>
       </c>
-      <c r="B97" s="254"/>
+      <c r="B97" s="269"/>
       <c r="C97" s="34" t="s">
         <v>177</v>
       </c>
@@ -11464,7 +11478,7 @@
       <c r="A98" s="25">
         <v>79</v>
       </c>
-      <c r="B98" s="254"/>
+      <c r="B98" s="269"/>
       <c r="C98" s="27" t="s">
         <v>178</v>
       </c>
@@ -11489,7 +11503,7 @@
       <c r="A99" s="48">
         <v>80</v>
       </c>
-      <c r="B99" s="255"/>
+      <c r="B99" s="270"/>
       <c r="C99" s="34" t="s">
         <v>179</v>
       </c>
@@ -11692,17 +11706,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A91:F93"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
@@ -11750,68 +11764,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="266" t="s">
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="273" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="267" t="s">
+      <c r="H1" s="257" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="268" t="s">
+      <c r="I1" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="268" t="s">
+      <c r="J1" s="259" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="274" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="268" t="s">
+      <c r="L1" s="259" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="268" t="s">
+      <c r="M1" s="259" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="260"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
-      <c r="M2" s="261"/>
+      <c r="A2" s="263"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
+      <c r="M2" s="258"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="263"/>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
       <c r="K3" s="75">
         <f>COUNTIF(K5:K100,"&lt;=10")</f>
         <v>33</v>
       </c>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
     </row>
     <row r="4" spans="1:13" ht="37.5">
       <c r="A4" s="76" t="s">
@@ -11832,9 +11846,9 @@
       <c r="F4" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
       <c r="J4" s="78" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -11843,8 +11857,8 @@
         <f>COUNT(K5:K100)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="261"/>
-      <c r="M4" s="261"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
     </row>
     <row r="5" spans="1:13" ht="45">
       <c r="A5" s="79">
@@ -13770,7 +13784,7 @@
       <c r="A53" s="79">
         <v>129</v>
       </c>
-      <c r="B53" s="253" t="s">
+      <c r="B53" s="268" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -13810,7 +13824,7 @@
       <c r="A54" s="79">
         <v>130</v>
       </c>
-      <c r="B54" s="254"/>
+      <c r="B54" s="269"/>
       <c r="C54" s="89" t="s">
         <v>133</v>
       </c>
@@ -13848,7 +13862,7 @@
       <c r="A55" s="79">
         <v>131</v>
       </c>
-      <c r="B55" s="254"/>
+      <c r="B55" s="269"/>
       <c r="C55" s="89" t="s">
         <v>134</v>
       </c>
@@ -13886,7 +13900,7 @@
       <c r="A56" s="79">
         <v>132</v>
       </c>
-      <c r="B56" s="254"/>
+      <c r="B56" s="269"/>
       <c r="C56" s="89" t="s">
         <v>135</v>
       </c>
@@ -13924,7 +13938,7 @@
       <c r="A57" s="79">
         <v>133</v>
       </c>
-      <c r="B57" s="254"/>
+      <c r="B57" s="269"/>
       <c r="C57" s="89" t="s">
         <v>136</v>
       </c>
@@ -13962,7 +13976,7 @@
       <c r="A58" s="79">
         <v>134</v>
       </c>
-      <c r="B58" s="254"/>
+      <c r="B58" s="269"/>
       <c r="C58" s="89" t="s">
         <v>137</v>
       </c>
@@ -14000,7 +14014,7 @@
       <c r="A59" s="79">
         <v>135</v>
       </c>
-      <c r="B59" s="255"/>
+      <c r="B59" s="270"/>
       <c r="C59" s="89" t="s">
         <v>138</v>
       </c>
@@ -14053,14 +14067,14 @@
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="269" t="s">
+      <c r="A61" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="258"/>
-      <c r="C61" s="258"/>
-      <c r="D61" s="258"/>
-      <c r="E61" s="258"/>
-      <c r="F61" s="259"/>
+      <c r="B61" s="261"/>
+      <c r="C61" s="261"/>
+      <c r="D61" s="261"/>
+      <c r="E61" s="261"/>
+      <c r="F61" s="262"/>
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
@@ -14073,12 +14087,12 @@
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="260"/>
-      <c r="B62" s="261"/>
-      <c r="C62" s="261"/>
-      <c r="D62" s="261"/>
-      <c r="E62" s="261"/>
-      <c r="F62" s="262"/>
+      <c r="A62" s="263"/>
+      <c r="B62" s="258"/>
+      <c r="C62" s="258"/>
+      <c r="D62" s="258"/>
+      <c r="E62" s="258"/>
+      <c r="F62" s="264"/>
       <c r="G62" s="105"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
@@ -14091,12 +14105,12 @@
       <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:13" ht="15">
-      <c r="A63" s="263"/>
-      <c r="B63" s="264"/>
-      <c r="C63" s="264"/>
-      <c r="D63" s="264"/>
-      <c r="E63" s="264"/>
-      <c r="F63" s="265"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="266"/>
+      <c r="C63" s="266"/>
+      <c r="D63" s="266"/>
+      <c r="E63" s="266"/>
+      <c r="F63" s="267"/>
       <c r="G63" s="105"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
@@ -14557,14 +14571,14 @@
       <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:13" ht="15">
-      <c r="A76" s="269" t="s">
+      <c r="A76" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="B76" s="258"/>
-      <c r="C76" s="258"/>
-      <c r="D76" s="258"/>
-      <c r="E76" s="258"/>
-      <c r="F76" s="259"/>
+      <c r="B76" s="261"/>
+      <c r="C76" s="261"/>
+      <c r="D76" s="261"/>
+      <c r="E76" s="261"/>
+      <c r="F76" s="262"/>
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
@@ -14577,12 +14591,12 @@
       <c r="M76" s="105"/>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="260"/>
-      <c r="B77" s="261"/>
-      <c r="C77" s="261"/>
-      <c r="D77" s="261"/>
-      <c r="E77" s="261"/>
-      <c r="F77" s="262"/>
+      <c r="A77" s="263"/>
+      <c r="B77" s="258"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="258"/>
+      <c r="E77" s="258"/>
+      <c r="F77" s="264"/>
       <c r="G77" s="105"/>
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
@@ -14595,12 +14609,12 @@
       <c r="M77" s="105"/>
     </row>
     <row r="78" spans="1:13" ht="15">
-      <c r="A78" s="263"/>
-      <c r="B78" s="264"/>
-      <c r="C78" s="264"/>
-      <c r="D78" s="264"/>
-      <c r="E78" s="264"/>
-      <c r="F78" s="265"/>
+      <c r="A78" s="265"/>
+      <c r="B78" s="266"/>
+      <c r="C78" s="266"/>
+      <c r="D78" s="266"/>
+      <c r="E78" s="266"/>
+      <c r="F78" s="267"/>
       <c r="G78" s="105"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
@@ -14646,7 +14660,7 @@
       <c r="A80" s="109">
         <v>146</v>
       </c>
-      <c r="B80" s="256" t="s">
+      <c r="B80" s="271" t="s">
         <v>161</v>
       </c>
       <c r="C80" s="111" t="s">
@@ -14686,7 +14700,7 @@
       <c r="A81" s="79">
         <v>147</v>
       </c>
-      <c r="B81" s="254"/>
+      <c r="B81" s="269"/>
       <c r="C81" s="89" t="s">
         <v>207</v>
       </c>
@@ -14724,7 +14738,7 @@
       <c r="A82" s="109">
         <v>148</v>
       </c>
-      <c r="B82" s="254"/>
+      <c r="B82" s="269"/>
       <c r="C82" s="111" t="s">
         <v>208</v>
       </c>
@@ -14762,7 +14776,7 @@
       <c r="A83" s="79">
         <v>149</v>
       </c>
-      <c r="B83" s="254"/>
+      <c r="B83" s="269"/>
       <c r="C83" s="89" t="s">
         <v>209</v>
       </c>
@@ -14800,7 +14814,7 @@
       <c r="A84" s="109">
         <v>150</v>
       </c>
-      <c r="B84" s="254"/>
+      <c r="B84" s="269"/>
       <c r="C84" s="111" t="s">
         <v>210</v>
       </c>
@@ -14838,7 +14852,7 @@
       <c r="A85" s="79">
         <v>151</v>
       </c>
-      <c r="B85" s="254"/>
+      <c r="B85" s="269"/>
       <c r="C85" s="89" t="s">
         <v>211</v>
       </c>
@@ -14876,7 +14890,7 @@
       <c r="A86" s="109">
         <v>152</v>
       </c>
-      <c r="B86" s="254"/>
+      <c r="B86" s="269"/>
       <c r="C86" s="111" t="s">
         <v>212</v>
       </c>
@@ -14914,7 +14928,7 @@
       <c r="A87" s="79">
         <v>153</v>
       </c>
-      <c r="B87" s="254"/>
+      <c r="B87" s="269"/>
       <c r="C87" s="89" t="s">
         <v>213</v>
       </c>
@@ -14952,7 +14966,7 @@
       <c r="A88" s="109">
         <v>154</v>
       </c>
-      <c r="B88" s="254"/>
+      <c r="B88" s="269"/>
       <c r="C88" s="111" t="s">
         <v>214</v>
       </c>
@@ -14990,7 +15004,7 @@
       <c r="A89" s="79">
         <v>155</v>
       </c>
-      <c r="B89" s="255"/>
+      <c r="B89" s="270"/>
       <c r="C89" s="89" t="s">
         <v>215</v>
       </c>
@@ -15043,14 +15057,14 @@
       <c r="M90" s="105"/>
     </row>
     <row r="91" spans="1:13" ht="15">
-      <c r="A91" s="269" t="s">
+      <c r="A91" s="260" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="258"/>
-      <c r="C91" s="258"/>
-      <c r="D91" s="258"/>
-      <c r="E91" s="258"/>
-      <c r="F91" s="259"/>
+      <c r="B91" s="261"/>
+      <c r="C91" s="261"/>
+      <c r="D91" s="261"/>
+      <c r="E91" s="261"/>
+      <c r="F91" s="262"/>
       <c r="G91" s="105"/>
       <c r="H91" s="106"/>
       <c r="I91" s="106"/>
@@ -15063,12 +15077,12 @@
       <c r="M91" s="105"/>
     </row>
     <row r="92" spans="1:13" ht="15">
-      <c r="A92" s="260"/>
-      <c r="B92" s="261"/>
-      <c r="C92" s="261"/>
-      <c r="D92" s="261"/>
-      <c r="E92" s="261"/>
-      <c r="F92" s="262"/>
+      <c r="A92" s="263"/>
+      <c r="B92" s="258"/>
+      <c r="C92" s="258"/>
+      <c r="D92" s="258"/>
+      <c r="E92" s="258"/>
+      <c r="F92" s="264"/>
       <c r="G92" s="105"/>
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
@@ -15081,12 +15095,12 @@
       <c r="M92" s="105"/>
     </row>
     <row r="93" spans="1:13" ht="15">
-      <c r="A93" s="263"/>
-      <c r="B93" s="264"/>
-      <c r="C93" s="264"/>
-      <c r="D93" s="264"/>
-      <c r="E93" s="264"/>
-      <c r="F93" s="265"/>
+      <c r="A93" s="265"/>
+      <c r="B93" s="266"/>
+      <c r="C93" s="266"/>
+      <c r="D93" s="266"/>
+      <c r="E93" s="266"/>
+      <c r="F93" s="267"/>
       <c r="G93" s="105"/>
       <c r="H93" s="106"/>
       <c r="I93" s="106"/>
@@ -15132,7 +15146,7 @@
       <c r="A95" s="109">
         <v>156</v>
       </c>
-      <c r="B95" s="256" t="s">
+      <c r="B95" s="271" t="s">
         <v>174</v>
       </c>
       <c r="C95" s="111" t="s">
@@ -15172,7 +15186,7 @@
       <c r="A96" s="79">
         <v>157</v>
       </c>
-      <c r="B96" s="254"/>
+      <c r="B96" s="269"/>
       <c r="C96" s="89" t="s">
         <v>217</v>
       </c>
@@ -15210,7 +15224,7 @@
       <c r="A97" s="109">
         <v>158</v>
       </c>
-      <c r="B97" s="254"/>
+      <c r="B97" s="269"/>
       <c r="C97" s="98" t="s">
         <v>218</v>
       </c>
@@ -15248,7 +15262,7 @@
       <c r="A98" s="79">
         <v>159</v>
       </c>
-      <c r="B98" s="254"/>
+      <c r="B98" s="269"/>
       <c r="C98" s="89" t="s">
         <v>219</v>
       </c>
@@ -15276,7 +15290,7 @@
       <c r="A99" s="109">
         <v>160</v>
       </c>
-      <c r="B99" s="255"/>
+      <c r="B99" s="270"/>
       <c r="C99" s="98" t="s">
         <v>220</v>
       </c>
@@ -15538,11 +15552,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A91:F93"/>
     <mergeCell ref="B95:B99"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
@@ -15552,6 +15561,11 @@
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B80:B89"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
@@ -15608,32 +15622,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="273" t="s">
+      <c r="A1" s="280" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="274" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="275" t="s">
+      <c r="G1" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="276" t="s">
+      <c r="H1" s="275" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="277" t="s">
+      <c r="J1" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="278" t="s">
+      <c r="K1" s="277" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="278" t="s">
+      <c r="L1" s="277" t="s">
         <v>194</v>
       </c>
     </row>
@@ -15653,16 +15667,16 @@
       <c r="E2" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I44),COUNT(I3:I44)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="134">
@@ -16178,13 +16192,13 @@
       <c r="L19" s="157"/>
     </row>
     <row r="20" spans="1:12" ht="23.25">
-      <c r="A20" s="271" t="s">
+      <c r="A20" s="278" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="250"/>
-      <c r="C20" s="250"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="251"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="252"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="253"/>
       <c r="F20" s="154"/>
       <c r="G20" s="154"/>
       <c r="H20" s="154"/>
@@ -16737,13 +16751,13 @@
       <c r="L38" s="158"/>
     </row>
     <row r="39" spans="1:12" ht="23.25">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="279" t="s">
         <v>247</v>
       </c>
-      <c r="B39" s="250"/>
-      <c r="C39" s="250"/>
-      <c r="D39" s="250"/>
-      <c r="E39" s="251"/>
+      <c r="B39" s="252"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="253"/>
       <c r="F39" s="154"/>
       <c r="G39" s="154"/>
       <c r="H39" s="154"/>
@@ -17157,15 +17171,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J44">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
@@ -17210,32 +17224,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="283" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="274" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="281" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="276" t="s">
+      <c r="G1" s="275" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="276" t="s">
+      <c r="H1" s="275" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="277" t="s">
+      <c r="J1" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="K1" s="278" t="s">
+      <c r="K1" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="278" t="s">
+      <c r="L1" s="277" t="s">
         <v>194</v>
       </c>
     </row>
@@ -17255,16 +17269,16 @@
       <c r="E2" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
-      <c r="H2" s="261"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I68),COUNT(I3:I68)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="261"/>
-      <c r="K2" s="261"/>
-      <c r="L2" s="261"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="258"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="186">
@@ -18220,13 +18234,13 @@
       <c r="L27" s="202"/>
     </row>
     <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="279" t="s">
+      <c r="A28" s="283" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="250"/>
-      <c r="C28" s="250"/>
-      <c r="D28" s="250"/>
-      <c r="E28" s="251"/>
+      <c r="B28" s="252"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="253"/>
       <c r="F28" s="202"/>
       <c r="G28" s="202"/>
       <c r="H28" s="202"/>
@@ -18751,13 +18765,13 @@
       <c r="L42" s="202"/>
     </row>
     <row r="43" spans="1:12" ht="23.25">
-      <c r="A43" s="279" t="s">
+      <c r="A43" s="283" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
-      <c r="D43" s="250"/>
-      <c r="E43" s="251"/>
+      <c r="B43" s="252"/>
+      <c r="C43" s="252"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="253"/>
       <c r="F43" s="202"/>
       <c r="G43" s="202"/>
       <c r="H43" s="202"/>
@@ -19048,13 +19062,13 @@
       <c r="L51" s="202"/>
     </row>
     <row r="52" spans="1:12" ht="23.25">
-      <c r="A52" s="279" t="s">
+      <c r="A52" s="283" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="250"/>
-      <c r="C52" s="250"/>
-      <c r="D52" s="250"/>
-      <c r="E52" s="251"/>
+      <c r="B52" s="252"/>
+      <c r="C52" s="252"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="253"/>
       <c r="F52" s="202"/>
       <c r="G52" s="202"/>
       <c r="H52" s="202"/>
@@ -19423,13 +19437,13 @@
       <c r="L62" s="202"/>
     </row>
     <row r="63" spans="1:12" ht="23.25">
-      <c r="A63" s="279" t="s">
+      <c r="A63" s="283" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="250"/>
-      <c r="C63" s="250"/>
-      <c r="D63" s="250"/>
-      <c r="E63" s="251"/>
+      <c r="B63" s="252"/>
+      <c r="C63" s="252"/>
+      <c r="D63" s="252"/>
+      <c r="E63" s="253"/>
       <c r="F63" s="202"/>
       <c r="G63" s="202"/>
       <c r="H63" s="202"/>
@@ -19759,17 +19773,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J68">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -19809,20 +19823,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="284" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="251"/>
-      <c r="G1" s="281" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="253"/>
+      <c r="G1" s="285" t="s">
         <v>298</v>
       </c>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="252"/>
+      <c r="K1" s="253"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="229" t="s">
@@ -20156,7 +20170,7 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20210,7 +20224,7 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="285" t="s">
+      <c r="F2" s="250" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -20224,13 +20238,13 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="2">
@@ -20239,13 +20253,13 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="2">
@@ -20254,11 +20268,443 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="282"/>
-      <c r="D5" s="282"/>
-      <c r="E5" s="282"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="282"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="249"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>44310</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>44330</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>44332</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>44335</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>44336</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>44337</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>44338</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>44339</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>44340</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>44344</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>44346</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="90" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="286" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="335">
   <si>
     <t>Date</t>
   </si>
@@ -1353,9 +1353,6 @@
     <t>NoNe</t>
   </si>
   <si>
-    <t>TOC(1)</t>
-  </si>
-  <si>
     <t>else prepared and buy test series</t>
   </si>
   <si>
@@ -1372,6 +1369,24 @@
   </si>
   <si>
     <t>GATEAPPLIED</t>
+  </si>
+  <si>
+    <t>NAn</t>
+  </si>
+  <si>
+    <t>gbgbg1bgbg</t>
+  </si>
+  <si>
+    <t>TOC(1.1)</t>
+  </si>
+  <si>
+    <t>operators, FA's, Langauges of FA's, Intro ,etc</t>
+  </si>
+  <si>
+    <t>TOC(1.2,1.3,2.1,2.2,2.3)  LA(1.1)</t>
+  </si>
+  <si>
+    <t>Why and how to study linear algerbra</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1400,7 @@
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1709,8 +1724,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1768,6 +1790,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1988,11 +2015,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="58" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2591,6 +2619,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,6 +2671,15 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2654,15 +2695,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2672,12 +2704,11 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -3042,11 +3073,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3060,7 +3091,7 @@
     <col min="7" max="7" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33" customHeight="1">
+    <row r="1" spans="1:10" ht="33" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3083,7 +3114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>44240</v>
       </c>
@@ -3105,11 +3136,14 @@
       <c r="G2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="I2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I2" s="207" t="s">
+        <v>324</v>
+      </c>
+      <c r="J2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>44241</v>
       </c>
@@ -3123,11 +3157,14 @@
       </c>
       <c r="F3" s="203"/>
       <c r="G3" s="203"/>
-      <c r="I3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I3" s="207" t="s">
+        <v>325</v>
+      </c>
+      <c r="J3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>44242</v>
       </c>
@@ -3141,11 +3178,14 @@
       </c>
       <c r="F4" s="203"/>
       <c r="G4" s="203"/>
-      <c r="I4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I4" s="207" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4">
+        <v>1806554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>44308</v>
       </c>
@@ -3157,11 +3197,14 @@
       <c r="E5" s="203"/>
       <c r="F5" s="203"/>
       <c r="G5" s="203"/>
-      <c r="I5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I5" s="207" t="s">
+        <v>327</v>
+      </c>
+      <c r="J5">
+        <v>1806554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>44309</v>
       </c>
@@ -3169,40 +3212,94 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>323</v>
       </c>
-      <c r="G6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="I6" s="207" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>44310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C7" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="G7" s="203" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>44311</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C8" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="203" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="203" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>44312</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C9" s="205" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="205">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="205" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="243" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>44313</v>
       </c>
@@ -3210,7 +3307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>44314</v>
       </c>
@@ -3218,7 +3315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>44315</v>
       </c>
@@ -3226,7 +3323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>44316</v>
       </c>
@@ -3234,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>44317</v>
       </c>
@@ -3242,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>44318</v>
       </c>
@@ -3250,7 +3347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>44319</v>
       </c>
@@ -3479,6 +3576,1966 @@
         <v>44347</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A45" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A46" s="2">
+        <v>44349</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A47" s="2">
+        <v>44350</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A48" s="2">
+        <v>44351</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A49" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A50" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A51" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A52" s="2">
+        <v>44355</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A53" s="2">
+        <v>44356</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A54" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A55" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A56" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A57" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A58" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A59" s="2">
+        <v>44362</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A60" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A61" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A62" s="2">
+        <v>44365</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A63" s="2">
+        <v>44366</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A64" s="2">
+        <v>44367</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A65" s="2">
+        <v>44368</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A66" s="2">
+        <v>44369</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A67" s="2">
+        <v>44370</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A68" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A69" s="2">
+        <v>44372</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A70" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A71" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A72" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A73" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A74" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A75" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A76" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A77" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A78" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A79" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A80" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A81" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A83" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A84" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A85" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A86" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A87" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A88" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A89" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A90" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A91" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A92" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A93" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A94" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A95" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A96" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A97" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A98" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A99" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A100" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A101" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A102" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A103" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A104" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A105" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A106" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A107" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A108" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A109" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A110" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A111" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A112" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A113" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A114" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A115" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A116" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A117" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A118" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A119" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A120" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A121" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A122" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A123" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A124" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A125" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A126" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A127" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A128" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A129" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A130" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A131" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A132" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A133" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A134" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A135" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A136" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A137" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A138" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A139" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A140" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A141" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A142" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A143" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A144" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A145" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A146" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A147" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A148" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A149" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A150" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A151" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A152" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A153" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A154" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A155" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A156" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A157" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A158" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A159" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A160" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A161" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A162" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A163" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A164" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A165" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A166" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A167" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A168" s="2">
+        <v>44471</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A169" s="2">
+        <v>44472</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A170" s="2">
+        <v>44473</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A171" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A172" s="2">
+        <v>44475</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A173" s="2">
+        <v>44476</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A174" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A175" s="2">
+        <v>44478</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A176" s="2">
+        <v>44479</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A177" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A178" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A179" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A180" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A181" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A182" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A183" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A184" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A185" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A186" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A187" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A188" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A189" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A190" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A191" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A192" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A193" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A194" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A195" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A196" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A197" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A198" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A199" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A200" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A201" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A202" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A203" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A204" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A205" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A206" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A207" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A208" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A209" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A210" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A211" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A212" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A213" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A214" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A215" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A216" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A217" s="2">
+        <v>44520</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A218" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A219" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A220" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A221" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A222" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A223" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A224" s="2">
+        <v>44527</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A225" s="2">
+        <v>44528</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A226" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A227" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A228" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A229" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A230" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A231" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A232" s="2">
+        <v>44535</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A233" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A234" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A235" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A236" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A237" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A238" s="2">
+        <v>44541</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A239" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A240" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A241" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A242" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A243" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A244" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A245" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A246" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A247" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A248" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A249" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A250" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A251" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A252" s="2">
+        <v>44555</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A253" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A254" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A255" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A256" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A257" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A258" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A259" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A260" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A261" s="2">
+        <v>44564</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A262" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A263" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A264" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A265" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A266" s="2">
+        <v>44569</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A267" s="2">
+        <v>44570</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A268" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A269" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A270" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A271" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A272" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A273" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A274" s="2">
+        <v>44577</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A275" s="2">
+        <v>44578</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A276" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A277" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A278" s="2">
+        <v>44581</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A279" s="2">
+        <v>44582</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A280" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A281" s="2">
+        <v>44584</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A282" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A283" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A284" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A285" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A286" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A287" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A288" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A289" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3515,15 +5572,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="208" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="208"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -3547,15 +5604,15 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="209" t="s">
+      <c r="I2" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="211"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="213"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="9">
@@ -3573,7 +5630,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="241" t="s">
+      <c r="G3" s="206" t="s">
         <v>322</v>
       </c>
     </row>
@@ -8962,50 +11019,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="224" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="226" t="s">
+      <c r="H1" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="227" t="s">
+      <c r="J1" s="229" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="218"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="15" t="s">
@@ -9026,9 +11083,9 @@
       <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
       <c r="J4" s="17" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -10337,7 +12394,7 @@
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="230" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -10364,7 +12421,7 @@
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="213"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="27" t="s">
         <v>132</v>
       </c>
@@ -10389,7 +12446,7 @@
       <c r="A55" s="25">
         <v>51</v>
       </c>
-      <c r="B55" s="213"/>
+      <c r="B55" s="215"/>
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
@@ -10414,7 +12471,7 @@
       <c r="A56" s="25">
         <v>52</v>
       </c>
-      <c r="B56" s="213"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="27" t="s">
         <v>134</v>
       </c>
@@ -10439,7 +12496,7 @@
       <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="213"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="27" t="s">
         <v>135</v>
       </c>
@@ -10464,7 +12521,7 @@
       <c r="A58" s="25">
         <v>54</v>
       </c>
-      <c r="B58" s="213"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="27" t="s">
         <v>136</v>
       </c>
@@ -10489,7 +12546,7 @@
       <c r="A59" s="25">
         <v>55</v>
       </c>
-      <c r="B59" s="214"/>
+      <c r="B59" s="216"/>
       <c r="C59" s="27" t="s">
         <v>137</v>
       </c>
@@ -10526,14 +12583,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="225" t="s">
+      <c r="A61" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="216"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="217"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="219"/>
       <c r="G61" s="37"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -10543,12 +12600,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="218"/>
-      <c r="B62" s="219"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="219"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="220"/>
+      <c r="A62" s="220"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="222"/>
       <c r="G62" s="37"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
@@ -10558,12 +12615,12 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="221"/>
-      <c r="B63" s="222"/>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="222"/>
-      <c r="F63" s="223"/>
+      <c r="A63" s="223"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="224"/>
+      <c r="D63" s="224"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="225"/>
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -10885,14 +12942,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="225" t="s">
+      <c r="A76" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="216"/>
-      <c r="C76" s="216"/>
-      <c r="D76" s="216"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="217"/>
+      <c r="B76" s="218"/>
+      <c r="C76" s="218"/>
+      <c r="D76" s="218"/>
+      <c r="E76" s="218"/>
+      <c r="F76" s="219"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -10902,12 +12959,12 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="218"/>
-      <c r="B77" s="219"/>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="220"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="221"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="222"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
@@ -10917,12 +12974,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="221"/>
-      <c r="B78" s="222"/>
-      <c r="C78" s="222"/>
-      <c r="D78" s="222"/>
-      <c r="E78" s="222"/>
-      <c r="F78" s="223"/>
+      <c r="A78" s="223"/>
+      <c r="B78" s="224"/>
+      <c r="C78" s="224"/>
+      <c r="D78" s="224"/>
+      <c r="E78" s="224"/>
+      <c r="F78" s="225"/>
       <c r="G78" s="37"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -10962,7 +13019,7 @@
       <c r="A80" s="48">
         <v>66</v>
       </c>
-      <c r="B80" s="212" t="s">
+      <c r="B80" s="214" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -10989,7 +13046,7 @@
       <c r="A81" s="25">
         <v>67</v>
       </c>
-      <c r="B81" s="213"/>
+      <c r="B81" s="215"/>
       <c r="C81" s="27" t="s">
         <v>163</v>
       </c>
@@ -11014,7 +13071,7 @@
       <c r="A82" s="48">
         <v>68</v>
       </c>
-      <c r="B82" s="213"/>
+      <c r="B82" s="215"/>
       <c r="C82" s="50" t="s">
         <v>164</v>
       </c>
@@ -11039,7 +13096,7 @@
       <c r="A83" s="25">
         <v>69</v>
       </c>
-      <c r="B83" s="213"/>
+      <c r="B83" s="215"/>
       <c r="C83" s="27" t="s">
         <v>165</v>
       </c>
@@ -11064,7 +13121,7 @@
       <c r="A84" s="48">
         <v>70</v>
       </c>
-      <c r="B84" s="213"/>
+      <c r="B84" s="215"/>
       <c r="C84" s="50" t="s">
         <v>166</v>
       </c>
@@ -11089,7 +13146,7 @@
       <c r="A85" s="25">
         <v>71</v>
       </c>
-      <c r="B85" s="213"/>
+      <c r="B85" s="215"/>
       <c r="C85" s="27" t="s">
         <v>167</v>
       </c>
@@ -11114,7 +13171,7 @@
       <c r="A86" s="48">
         <v>72</v>
       </c>
-      <c r="B86" s="213"/>
+      <c r="B86" s="215"/>
       <c r="C86" s="50" t="s">
         <v>168</v>
       </c>
@@ -11139,7 +13196,7 @@
       <c r="A87" s="25">
         <v>73</v>
       </c>
-      <c r="B87" s="213"/>
+      <c r="B87" s="215"/>
       <c r="C87" s="27" t="s">
         <v>169</v>
       </c>
@@ -11164,7 +13221,7 @@
       <c r="A88" s="48">
         <v>74</v>
       </c>
-      <c r="B88" s="213"/>
+      <c r="B88" s="215"/>
       <c r="C88" s="50" t="s">
         <v>170</v>
       </c>
@@ -11189,7 +13246,7 @@
       <c r="A89" s="25">
         <v>75</v>
       </c>
-      <c r="B89" s="214"/>
+      <c r="B89" s="216"/>
       <c r="C89" s="27" t="s">
         <v>171</v>
       </c>
@@ -11226,14 +13283,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
-      <c r="A91" s="225" t="s">
+      <c r="A91" s="227" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="216"/>
-      <c r="C91" s="216"/>
-      <c r="D91" s="216"/>
-      <c r="E91" s="216"/>
-      <c r="F91" s="217"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="218"/>
+      <c r="D91" s="218"/>
+      <c r="E91" s="218"/>
+      <c r="F91" s="219"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -11243,12 +13300,12 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15">
-      <c r="A92" s="218"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="219"/>
-      <c r="D92" s="219"/>
-      <c r="E92" s="219"/>
-      <c r="F92" s="220"/>
+      <c r="A92" s="220"/>
+      <c r="B92" s="221"/>
+      <c r="C92" s="221"/>
+      <c r="D92" s="221"/>
+      <c r="E92" s="221"/>
+      <c r="F92" s="222"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
@@ -11258,12 +13315,12 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="221"/>
-      <c r="B93" s="222"/>
-      <c r="C93" s="222"/>
-      <c r="D93" s="222"/>
-      <c r="E93" s="222"/>
-      <c r="F93" s="223"/>
+      <c r="A93" s="223"/>
+      <c r="B93" s="224"/>
+      <c r="C93" s="224"/>
+      <c r="D93" s="224"/>
+      <c r="E93" s="224"/>
+      <c r="F93" s="225"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -11303,7 +13360,7 @@
       <c r="A95" s="48">
         <v>76</v>
       </c>
-      <c r="B95" s="212" t="s">
+      <c r="B95" s="214" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="50" t="s">
@@ -11330,7 +13387,7 @@
       <c r="A96" s="25">
         <v>77</v>
       </c>
-      <c r="B96" s="213"/>
+      <c r="B96" s="215"/>
       <c r="C96" s="27" t="s">
         <v>175</v>
       </c>
@@ -11355,7 +13412,7 @@
       <c r="A97" s="48">
         <v>78</v>
       </c>
-      <c r="B97" s="213"/>
+      <c r="B97" s="215"/>
       <c r="C97" s="34" t="s">
         <v>176</v>
       </c>
@@ -11380,7 +13437,7 @@
       <c r="A98" s="25">
         <v>79</v>
       </c>
-      <c r="B98" s="213"/>
+      <c r="B98" s="215"/>
       <c r="C98" s="27" t="s">
         <v>177</v>
       </c>
@@ -11405,7 +13462,7 @@
       <c r="A99" s="48">
         <v>80</v>
       </c>
-      <c r="B99" s="214"/>
+      <c r="B99" s="216"/>
       <c r="C99" s="34" t="s">
         <v>178</v>
       </c>
@@ -11667,68 +13724,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="224" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="226" t="s">
+      <c r="H1" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="227" t="s">
+      <c r="J1" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="229" t="s">
+      <c r="K1" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="227" t="s">
+      <c r="L1" s="229" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="227" t="s">
+      <c r="M1" s="229" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="218"/>
-      <c r="B2" s="219"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
+      <c r="A2" s="220"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
+      <c r="A3" s="223"/>
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
       <c r="K3" s="75">
         <f>COUNTIF(K5:K100,"&lt;=10")</f>
         <v>33</v>
       </c>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
     </row>
     <row r="4" spans="1:13" ht="37.5">
       <c r="A4" s="76" t="s">
@@ -11749,9 +13806,9 @@
       <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
       <c r="J4" s="78" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -11760,8 +13817,8 @@
         <f>COUNT(K5:K100)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
     </row>
     <row r="5" spans="1:13" ht="45">
       <c r="A5" s="79">
@@ -13687,7 +15744,7 @@
       <c r="A53" s="79">
         <v>129</v>
       </c>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="230" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -13727,7 +15784,7 @@
       <c r="A54" s="79">
         <v>130</v>
       </c>
-      <c r="B54" s="213"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="89" t="s">
         <v>132</v>
       </c>
@@ -13765,7 +15822,7 @@
       <c r="A55" s="79">
         <v>131</v>
       </c>
-      <c r="B55" s="213"/>
+      <c r="B55" s="215"/>
       <c r="C55" s="89" t="s">
         <v>133</v>
       </c>
@@ -13803,7 +15860,7 @@
       <c r="A56" s="79">
         <v>132</v>
       </c>
-      <c r="B56" s="213"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="89" t="s">
         <v>134</v>
       </c>
@@ -13841,7 +15898,7 @@
       <c r="A57" s="79">
         <v>133</v>
       </c>
-      <c r="B57" s="213"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="89" t="s">
         <v>135</v>
       </c>
@@ -13879,7 +15936,7 @@
       <c r="A58" s="79">
         <v>134</v>
       </c>
-      <c r="B58" s="213"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="89" t="s">
         <v>136</v>
       </c>
@@ -13917,7 +15974,7 @@
       <c r="A59" s="79">
         <v>135</v>
       </c>
-      <c r="B59" s="214"/>
+      <c r="B59" s="216"/>
       <c r="C59" s="89" t="s">
         <v>137</v>
       </c>
@@ -13970,14 +16027,14 @@
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="225" t="s">
+      <c r="A61" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="216"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="216"/>
-      <c r="E61" s="216"/>
-      <c r="F61" s="217"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="219"/>
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
@@ -13990,12 +16047,12 @@
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="218"/>
-      <c r="B62" s="219"/>
-      <c r="C62" s="219"/>
-      <c r="D62" s="219"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="220"/>
+      <c r="A62" s="220"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="221"/>
+      <c r="D62" s="221"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="222"/>
       <c r="G62" s="105"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
@@ -14008,12 +16065,12 @@
       <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:13" ht="15">
-      <c r="A63" s="221"/>
-      <c r="B63" s="222"/>
-      <c r="C63" s="222"/>
-      <c r="D63" s="222"/>
-      <c r="E63" s="222"/>
-      <c r="F63" s="223"/>
+      <c r="A63" s="223"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="224"/>
+      <c r="D63" s="224"/>
+      <c r="E63" s="224"/>
+      <c r="F63" s="225"/>
       <c r="G63" s="105"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
@@ -14474,14 +16531,14 @@
       <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:13" ht="15">
-      <c r="A76" s="225" t="s">
+      <c r="A76" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="216"/>
-      <c r="C76" s="216"/>
-      <c r="D76" s="216"/>
-      <c r="E76" s="216"/>
-      <c r="F76" s="217"/>
+      <c r="B76" s="218"/>
+      <c r="C76" s="218"/>
+      <c r="D76" s="218"/>
+      <c r="E76" s="218"/>
+      <c r="F76" s="219"/>
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
@@ -14494,12 +16551,12 @@
       <c r="M76" s="105"/>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="218"/>
-      <c r="B77" s="219"/>
-      <c r="C77" s="219"/>
-      <c r="D77" s="219"/>
-      <c r="E77" s="219"/>
-      <c r="F77" s="220"/>
+      <c r="A77" s="220"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="221"/>
+      <c r="D77" s="221"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="222"/>
       <c r="G77" s="105"/>
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
@@ -14512,12 +16569,12 @@
       <c r="M77" s="105"/>
     </row>
     <row r="78" spans="1:13" ht="15">
-      <c r="A78" s="221"/>
-      <c r="B78" s="222"/>
-      <c r="C78" s="222"/>
-      <c r="D78" s="222"/>
-      <c r="E78" s="222"/>
-      <c r="F78" s="223"/>
+      <c r="A78" s="223"/>
+      <c r="B78" s="224"/>
+      <c r="C78" s="224"/>
+      <c r="D78" s="224"/>
+      <c r="E78" s="224"/>
+      <c r="F78" s="225"/>
       <c r="G78" s="105"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
@@ -14563,7 +16620,7 @@
       <c r="A80" s="109">
         <v>146</v>
       </c>
-      <c r="B80" s="212" t="s">
+      <c r="B80" s="214" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="111" t="s">
@@ -14603,7 +16660,7 @@
       <c r="A81" s="79">
         <v>147</v>
       </c>
-      <c r="B81" s="213"/>
+      <c r="B81" s="215"/>
       <c r="C81" s="89" t="s">
         <v>206</v>
       </c>
@@ -14641,7 +16698,7 @@
       <c r="A82" s="109">
         <v>148</v>
       </c>
-      <c r="B82" s="213"/>
+      <c r="B82" s="215"/>
       <c r="C82" s="111" t="s">
         <v>207</v>
       </c>
@@ -14679,7 +16736,7 @@
       <c r="A83" s="79">
         <v>149</v>
       </c>
-      <c r="B83" s="213"/>
+      <c r="B83" s="215"/>
       <c r="C83" s="89" t="s">
         <v>208</v>
       </c>
@@ -14717,7 +16774,7 @@
       <c r="A84" s="109">
         <v>150</v>
       </c>
-      <c r="B84" s="213"/>
+      <c r="B84" s="215"/>
       <c r="C84" s="111" t="s">
         <v>209</v>
       </c>
@@ -14755,7 +16812,7 @@
       <c r="A85" s="79">
         <v>151</v>
       </c>
-      <c r="B85" s="213"/>
+      <c r="B85" s="215"/>
       <c r="C85" s="89" t="s">
         <v>210</v>
       </c>
@@ -14793,7 +16850,7 @@
       <c r="A86" s="109">
         <v>152</v>
       </c>
-      <c r="B86" s="213"/>
+      <c r="B86" s="215"/>
       <c r="C86" s="111" t="s">
         <v>211</v>
       </c>
@@ -14831,7 +16888,7 @@
       <c r="A87" s="79">
         <v>153</v>
       </c>
-      <c r="B87" s="213"/>
+      <c r="B87" s="215"/>
       <c r="C87" s="89" t="s">
         <v>212</v>
       </c>
@@ -14869,7 +16926,7 @@
       <c r="A88" s="109">
         <v>154</v>
       </c>
-      <c r="B88" s="213"/>
+      <c r="B88" s="215"/>
       <c r="C88" s="111" t="s">
         <v>213</v>
       </c>
@@ -14907,7 +16964,7 @@
       <c r="A89" s="79">
         <v>155</v>
       </c>
-      <c r="B89" s="214"/>
+      <c r="B89" s="216"/>
       <c r="C89" s="89" t="s">
         <v>214</v>
       </c>
@@ -14960,14 +17017,14 @@
       <c r="M90" s="105"/>
     </row>
     <row r="91" spans="1:13" ht="15">
-      <c r="A91" s="225" t="s">
+      <c r="A91" s="227" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="216"/>
-      <c r="C91" s="216"/>
-      <c r="D91" s="216"/>
-      <c r="E91" s="216"/>
-      <c r="F91" s="217"/>
+      <c r="B91" s="218"/>
+      <c r="C91" s="218"/>
+      <c r="D91" s="218"/>
+      <c r="E91" s="218"/>
+      <c r="F91" s="219"/>
       <c r="G91" s="105"/>
       <c r="H91" s="106"/>
       <c r="I91" s="106"/>
@@ -14980,12 +17037,12 @@
       <c r="M91" s="105"/>
     </row>
     <row r="92" spans="1:13" ht="15">
-      <c r="A92" s="218"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="219"/>
-      <c r="D92" s="219"/>
-      <c r="E92" s="219"/>
-      <c r="F92" s="220"/>
+      <c r="A92" s="220"/>
+      <c r="B92" s="221"/>
+      <c r="C92" s="221"/>
+      <c r="D92" s="221"/>
+      <c r="E92" s="221"/>
+      <c r="F92" s="222"/>
       <c r="G92" s="105"/>
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
@@ -14998,12 +17055,12 @@
       <c r="M92" s="105"/>
     </row>
     <row r="93" spans="1:13" ht="15">
-      <c r="A93" s="221"/>
-      <c r="B93" s="222"/>
-      <c r="C93" s="222"/>
-      <c r="D93" s="222"/>
-      <c r="E93" s="222"/>
-      <c r="F93" s="223"/>
+      <c r="A93" s="223"/>
+      <c r="B93" s="224"/>
+      <c r="C93" s="224"/>
+      <c r="D93" s="224"/>
+      <c r="E93" s="224"/>
+      <c r="F93" s="225"/>
       <c r="G93" s="105"/>
       <c r="H93" s="106"/>
       <c r="I93" s="106"/>
@@ -15049,7 +17106,7 @@
       <c r="A95" s="109">
         <v>156</v>
       </c>
-      <c r="B95" s="212" t="s">
+      <c r="B95" s="214" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="111" t="s">
@@ -15089,7 +17146,7 @@
       <c r="A96" s="79">
         <v>157</v>
       </c>
-      <c r="B96" s="213"/>
+      <c r="B96" s="215"/>
       <c r="C96" s="89" t="s">
         <v>216</v>
       </c>
@@ -15127,7 +17184,7 @@
       <c r="A97" s="109">
         <v>158</v>
       </c>
-      <c r="B97" s="213"/>
+      <c r="B97" s="215"/>
       <c r="C97" s="98" t="s">
         <v>217</v>
       </c>
@@ -15165,7 +17222,7 @@
       <c r="A98" s="79">
         <v>159</v>
       </c>
-      <c r="B98" s="213"/>
+      <c r="B98" s="215"/>
       <c r="C98" s="89" t="s">
         <v>218</v>
       </c>
@@ -15193,7 +17250,7 @@
       <c r="A99" s="109">
         <v>160</v>
       </c>
-      <c r="B99" s="214"/>
+      <c r="B99" s="216"/>
       <c r="C99" s="98" t="s">
         <v>219</v>
       </c>
@@ -15525,32 +17582,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="236" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="232" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="233" t="s">
+      <c r="G1" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="234" t="s">
+      <c r="H1" s="239" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="J1" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="K1" s="233" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="236" t="s">
+      <c r="L1" s="233" t="s">
         <v>193</v>
       </c>
     </row>
@@ -15570,16 +17627,16 @@
       <c r="E2" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I44),COUNT(I3:I44)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="134">
@@ -16014,13 +18071,13 @@
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="1:14" ht="23.25">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="234" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="208"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="210"/>
       <c r="F20" s="143"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
@@ -16490,13 +18547,13 @@
       <c r="N38" s="139"/>
     </row>
     <row r="39" spans="1:14" ht="23.25">
-      <c r="A39" s="230" t="s">
+      <c r="A39" s="235" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="207"/>
-      <c r="C39" s="207"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="208"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
       <c r="F39" s="143"/>
       <c r="G39" s="139"/>
       <c r="H39" s="139"/>
@@ -16943,32 +19000,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="240" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="232" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="234" t="s">
+      <c r="G1" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="234" t="s">
+      <c r="H1" s="239" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="J1" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="K1" s="233" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="236" t="s">
+      <c r="L1" s="233" t="s">
         <v>193</v>
       </c>
     </row>
@@ -16988,16 +19045,16 @@
       <c r="E2" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I68),COUNT(I3:I68)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="162">
@@ -17590,13 +19647,13 @@
       <c r="L27" s="165"/>
     </row>
     <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="240" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="207"/>
-      <c r="C28" s="207"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="208"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="209"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="210"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
@@ -17932,13 +19989,13 @@
       <c r="L42" s="165"/>
     </row>
     <row r="43" spans="1:12" ht="23.25">
-      <c r="A43" s="238" t="s">
+      <c r="A43" s="240" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="207"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="207"/>
-      <c r="E43" s="208"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="210"/>
       <c r="F43" s="165"/>
       <c r="G43" s="165"/>
       <c r="H43" s="165"/>
@@ -18130,13 +20187,13 @@
       <c r="L51" s="165"/>
     </row>
     <row r="52" spans="1:12" ht="23.25">
-      <c r="A52" s="238" t="s">
+      <c r="A52" s="240" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="207"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="208"/>
+      <c r="B52" s="209"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="210"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="165"/>
@@ -18376,13 +20433,13 @@
       <c r="L62" s="165"/>
     </row>
     <row r="63" spans="1:12" ht="23.25">
-      <c r="A63" s="238" t="s">
+      <c r="A63" s="240" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="207"/>
-      <c r="C63" s="207"/>
-      <c r="D63" s="207"/>
-      <c r="E63" s="208"/>
+      <c r="B63" s="209"/>
+      <c r="C63" s="209"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="210"/>
       <c r="F63" s="165"/>
       <c r="G63" s="165"/>
       <c r="H63" s="165"/>
@@ -19134,20 +21191,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="241" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208"/>
-      <c r="G1" s="240" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="210"/>
+      <c r="G1" s="242" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="208"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="210"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="183" t="s">
@@ -19482,7 +21539,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -19585,21 +21642,31 @@
       <c r="F5" s="203"/>
       <c r="G5" s="203"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="2">
         <v>44309</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="2">
         <v>44310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
@@ -19910,7 +21977,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20017,29 +22084,44 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="2">
         <v>44309</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="203"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="203"/>
+      <c r="F6" s="203"/>
+      <c r="G6" s="203"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="2">
         <v>44310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2">
         <v>44311</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="338">
   <si>
     <t>Date</t>
   </si>
@@ -1387,6 +1387,15 @@
   </si>
   <si>
     <t>Why and how to study linear algerbra</t>
+  </si>
+  <si>
+    <t>examples on FA construction and DFA min states constructions</t>
+  </si>
+  <si>
+    <t>TOC(2.4-2.6)  LA(1.2,1.3,1.4)</t>
+  </si>
+  <si>
+    <t>vectors1 linear dependence, basis vectors unit vectors and standard basis unit vectors</t>
   </si>
 </sst>
 </file>
@@ -2623,6 +2632,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="11" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2637,36 +2647,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -2704,7 +2714,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -3077,7 +3086,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3088,7 +3097,7 @@
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1">
@@ -3234,19 +3243,19 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="203" t="s">
+      <c r="D7" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="203" t="s">
+      <c r="E7" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="203" t="s">
+      <c r="F7" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="G7" s="203" t="s">
+      <c r="G7" s="205" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3257,19 +3266,19 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="203" t="s">
+      <c r="C8" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="203" t="s">
+      <c r="D8" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="F8" s="203" t="s">
+      <c r="F8" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="205" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3295,7 +3304,7 @@
       <c r="G9" s="205" t="s">
         <v>332</v>
       </c>
-      <c r="H9" s="243" t="s">
+      <c r="H9" s="208" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3305,6 +3314,15 @@
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="C10" s="205" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" s="205" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -5572,15 +5590,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="209" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="210"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="211"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -5604,15 +5622,15 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="9">
@@ -11019,38 +11037,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="226" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="228" t="s">
+      <c r="H1" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="229" t="s">
+      <c r="I1" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="229" t="s">
+      <c r="J1" s="217" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="220"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
       <c r="F2" s="222"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="223"/>
@@ -11059,10 +11077,10 @@
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="225"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="15" t="s">
@@ -11083,9 +11101,9 @@
       <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
       <c r="J4" s="17" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -12394,7 +12412,7 @@
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="230" t="s">
+      <c r="B53" s="226" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -12421,7 +12439,7 @@
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="215"/>
+      <c r="B54" s="227"/>
       <c r="C54" s="27" t="s">
         <v>132</v>
       </c>
@@ -12446,7 +12464,7 @@
       <c r="A55" s="25">
         <v>51</v>
       </c>
-      <c r="B55" s="215"/>
+      <c r="B55" s="227"/>
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
@@ -12471,7 +12489,7 @@
       <c r="A56" s="25">
         <v>52</v>
       </c>
-      <c r="B56" s="215"/>
+      <c r="B56" s="227"/>
       <c r="C56" s="27" t="s">
         <v>134</v>
       </c>
@@ -12496,7 +12514,7 @@
       <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="215"/>
+      <c r="B57" s="227"/>
       <c r="C57" s="27" t="s">
         <v>135</v>
       </c>
@@ -12521,7 +12539,7 @@
       <c r="A58" s="25">
         <v>54</v>
       </c>
-      <c r="B58" s="215"/>
+      <c r="B58" s="227"/>
       <c r="C58" s="27" t="s">
         <v>136</v>
       </c>
@@ -12546,7 +12564,7 @@
       <c r="A59" s="25">
         <v>55</v>
       </c>
-      <c r="B59" s="216"/>
+      <c r="B59" s="228"/>
       <c r="C59" s="27" t="s">
         <v>137</v>
       </c>
@@ -12583,14 +12601,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="227" t="s">
+      <c r="A61" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="218"/>
-      <c r="C61" s="218"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="218"/>
-      <c r="F61" s="219"/>
+      <c r="B61" s="219"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="220"/>
       <c r="G61" s="37"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -12600,11 +12618,11 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="220"/>
-      <c r="B62" s="221"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="221"/>
-      <c r="E62" s="221"/>
+      <c r="A62" s="221"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
       <c r="F62" s="222"/>
       <c r="G62" s="37"/>
       <c r="H62" s="38"/>
@@ -12942,14 +12960,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="227" t="s">
+      <c r="A76" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="218"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="219"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="219"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="220"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -12959,11 +12977,11 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="220"/>
-      <c r="B77" s="221"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221"/>
+      <c r="A77" s="221"/>
+      <c r="B77" s="216"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
       <c r="F77" s="222"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
@@ -13019,7 +13037,7 @@
       <c r="A80" s="48">
         <v>66</v>
       </c>
-      <c r="B80" s="214" t="s">
+      <c r="B80" s="229" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -13046,7 +13064,7 @@
       <c r="A81" s="25">
         <v>67</v>
       </c>
-      <c r="B81" s="215"/>
+      <c r="B81" s="227"/>
       <c r="C81" s="27" t="s">
         <v>163</v>
       </c>
@@ -13071,7 +13089,7 @@
       <c r="A82" s="48">
         <v>68</v>
       </c>
-      <c r="B82" s="215"/>
+      <c r="B82" s="227"/>
       <c r="C82" s="50" t="s">
         <v>164</v>
       </c>
@@ -13096,7 +13114,7 @@
       <c r="A83" s="25">
         <v>69</v>
       </c>
-      <c r="B83" s="215"/>
+      <c r="B83" s="227"/>
       <c r="C83" s="27" t="s">
         <v>165</v>
       </c>
@@ -13121,7 +13139,7 @@
       <c r="A84" s="48">
         <v>70</v>
       </c>
-      <c r="B84" s="215"/>
+      <c r="B84" s="227"/>
       <c r="C84" s="50" t="s">
         <v>166</v>
       </c>
@@ -13146,7 +13164,7 @@
       <c r="A85" s="25">
         <v>71</v>
       </c>
-      <c r="B85" s="215"/>
+      <c r="B85" s="227"/>
       <c r="C85" s="27" t="s">
         <v>167</v>
       </c>
@@ -13171,7 +13189,7 @@
       <c r="A86" s="48">
         <v>72</v>
       </c>
-      <c r="B86" s="215"/>
+      <c r="B86" s="227"/>
       <c r="C86" s="50" t="s">
         <v>168</v>
       </c>
@@ -13196,7 +13214,7 @@
       <c r="A87" s="25">
         <v>73</v>
       </c>
-      <c r="B87" s="215"/>
+      <c r="B87" s="227"/>
       <c r="C87" s="27" t="s">
         <v>169</v>
       </c>
@@ -13221,7 +13239,7 @@
       <c r="A88" s="48">
         <v>74</v>
       </c>
-      <c r="B88" s="215"/>
+      <c r="B88" s="227"/>
       <c r="C88" s="50" t="s">
         <v>170</v>
       </c>
@@ -13246,7 +13264,7 @@
       <c r="A89" s="25">
         <v>75</v>
       </c>
-      <c r="B89" s="216"/>
+      <c r="B89" s="228"/>
       <c r="C89" s="27" t="s">
         <v>171</v>
       </c>
@@ -13283,14 +13301,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
-      <c r="A91" s="227" t="s">
+      <c r="A91" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="218"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="218"/>
-      <c r="E91" s="218"/>
-      <c r="F91" s="219"/>
+      <c r="B91" s="219"/>
+      <c r="C91" s="219"/>
+      <c r="D91" s="219"/>
+      <c r="E91" s="219"/>
+      <c r="F91" s="220"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -13300,11 +13318,11 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15">
-      <c r="A92" s="220"/>
-      <c r="B92" s="221"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="221"/>
-      <c r="E92" s="221"/>
+      <c r="A92" s="221"/>
+      <c r="B92" s="216"/>
+      <c r="C92" s="216"/>
+      <c r="D92" s="216"/>
+      <c r="E92" s="216"/>
       <c r="F92" s="222"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
@@ -13360,7 +13378,7 @@
       <c r="A95" s="48">
         <v>76</v>
       </c>
-      <c r="B95" s="214" t="s">
+      <c r="B95" s="229" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="50" t="s">
@@ -13387,7 +13405,7 @@
       <c r="A96" s="25">
         <v>77</v>
       </c>
-      <c r="B96" s="215"/>
+      <c r="B96" s="227"/>
       <c r="C96" s="27" t="s">
         <v>175</v>
       </c>
@@ -13412,7 +13430,7 @@
       <c r="A97" s="48">
         <v>78</v>
       </c>
-      <c r="B97" s="215"/>
+      <c r="B97" s="227"/>
       <c r="C97" s="34" t="s">
         <v>176</v>
       </c>
@@ -13437,7 +13455,7 @@
       <c r="A98" s="25">
         <v>79</v>
       </c>
-      <c r="B98" s="215"/>
+      <c r="B98" s="227"/>
       <c r="C98" s="27" t="s">
         <v>177</v>
       </c>
@@ -13462,7 +13480,7 @@
       <c r="A99" s="48">
         <v>80</v>
       </c>
-      <c r="B99" s="216"/>
+      <c r="B99" s="228"/>
       <c r="C99" s="34" t="s">
         <v>178</v>
       </c>
@@ -13665,17 +13683,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A91:F93"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
@@ -13724,50 +13742,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="226" t="s">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="231" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="228" t="s">
+      <c r="H1" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="229" t="s">
+      <c r="I1" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="229" t="s">
+      <c r="J1" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="231" t="s">
+      <c r="K1" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="229" t="s">
+      <c r="L1" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="229" t="s">
+      <c r="M1" s="217" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="220"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
+      <c r="A2" s="221"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
       <c r="F2" s="222"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
-      <c r="M2" s="221"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
     </row>
     <row r="3" spans="1:13" ht="15">
       <c r="A3" s="223"/>
@@ -13776,16 +13794,16 @@
       <c r="D3" s="224"/>
       <c r="E3" s="224"/>
       <c r="F3" s="225"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
       <c r="K3" s="75">
         <f>COUNTIF(K5:K100,"&lt;=10")</f>
         <v>33</v>
       </c>
-      <c r="L3" s="221"/>
-      <c r="M3" s="221"/>
+      <c r="L3" s="216"/>
+      <c r="M3" s="216"/>
     </row>
     <row r="4" spans="1:13" ht="37.5">
       <c r="A4" s="76" t="s">
@@ -13806,9 +13824,9 @@
       <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="221"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="221"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
       <c r="J4" s="78" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -13817,8 +13835,8 @@
         <f>COUNT(K5:K100)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="221"/>
-      <c r="M4" s="221"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
     </row>
     <row r="5" spans="1:13" ht="45">
       <c r="A5" s="79">
@@ -15744,7 +15762,7 @@
       <c r="A53" s="79">
         <v>129</v>
       </c>
-      <c r="B53" s="230" t="s">
+      <c r="B53" s="226" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -15784,7 +15802,7 @@
       <c r="A54" s="79">
         <v>130</v>
       </c>
-      <c r="B54" s="215"/>
+      <c r="B54" s="227"/>
       <c r="C54" s="89" t="s">
         <v>132</v>
       </c>
@@ -15822,7 +15840,7 @@
       <c r="A55" s="79">
         <v>131</v>
       </c>
-      <c r="B55" s="215"/>
+      <c r="B55" s="227"/>
       <c r="C55" s="89" t="s">
         <v>133</v>
       </c>
@@ -15860,7 +15878,7 @@
       <c r="A56" s="79">
         <v>132</v>
       </c>
-      <c r="B56" s="215"/>
+      <c r="B56" s="227"/>
       <c r="C56" s="89" t="s">
         <v>134</v>
       </c>
@@ -15898,7 +15916,7 @@
       <c r="A57" s="79">
         <v>133</v>
       </c>
-      <c r="B57" s="215"/>
+      <c r="B57" s="227"/>
       <c r="C57" s="89" t="s">
         <v>135</v>
       </c>
@@ -15936,7 +15954,7 @@
       <c r="A58" s="79">
         <v>134</v>
       </c>
-      <c r="B58" s="215"/>
+      <c r="B58" s="227"/>
       <c r="C58" s="89" t="s">
         <v>136</v>
       </c>
@@ -15974,7 +15992,7 @@
       <c r="A59" s="79">
         <v>135</v>
       </c>
-      <c r="B59" s="216"/>
+      <c r="B59" s="228"/>
       <c r="C59" s="89" t="s">
         <v>137</v>
       </c>
@@ -16027,14 +16045,14 @@
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="227" t="s">
+      <c r="A61" s="218" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="218"/>
-      <c r="C61" s="218"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="218"/>
-      <c r="F61" s="219"/>
+      <c r="B61" s="219"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="220"/>
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
@@ -16047,11 +16065,11 @@
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="220"/>
-      <c r="B62" s="221"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="221"/>
-      <c r="E62" s="221"/>
+      <c r="A62" s="221"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
       <c r="F62" s="222"/>
       <c r="G62" s="105"/>
       <c r="H62" s="106"/>
@@ -16531,14 +16549,14 @@
       <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:13" ht="15">
-      <c r="A76" s="227" t="s">
+      <c r="A76" s="218" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="218"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="219"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="219"/>
+      <c r="E76" s="219"/>
+      <c r="F76" s="220"/>
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
@@ -16551,11 +16569,11 @@
       <c r="M76" s="105"/>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="220"/>
-      <c r="B77" s="221"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="221"/>
-      <c r="E77" s="221"/>
+      <c r="A77" s="221"/>
+      <c r="B77" s="216"/>
+      <c r="C77" s="216"/>
+      <c r="D77" s="216"/>
+      <c r="E77" s="216"/>
       <c r="F77" s="222"/>
       <c r="G77" s="105"/>
       <c r="H77" s="106"/>
@@ -16620,7 +16638,7 @@
       <c r="A80" s="109">
         <v>146</v>
       </c>
-      <c r="B80" s="214" t="s">
+      <c r="B80" s="229" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="111" t="s">
@@ -16660,7 +16678,7 @@
       <c r="A81" s="79">
         <v>147</v>
       </c>
-      <c r="B81" s="215"/>
+      <c r="B81" s="227"/>
       <c r="C81" s="89" t="s">
         <v>206</v>
       </c>
@@ -16698,7 +16716,7 @@
       <c r="A82" s="109">
         <v>148</v>
       </c>
-      <c r="B82" s="215"/>
+      <c r="B82" s="227"/>
       <c r="C82" s="111" t="s">
         <v>207</v>
       </c>
@@ -16736,7 +16754,7 @@
       <c r="A83" s="79">
         <v>149</v>
       </c>
-      <c r="B83" s="215"/>
+      <c r="B83" s="227"/>
       <c r="C83" s="89" t="s">
         <v>208</v>
       </c>
@@ -16774,7 +16792,7 @@
       <c r="A84" s="109">
         <v>150</v>
       </c>
-      <c r="B84" s="215"/>
+      <c r="B84" s="227"/>
       <c r="C84" s="111" t="s">
         <v>209</v>
       </c>
@@ -16812,7 +16830,7 @@
       <c r="A85" s="79">
         <v>151</v>
       </c>
-      <c r="B85" s="215"/>
+      <c r="B85" s="227"/>
       <c r="C85" s="89" t="s">
         <v>210</v>
       </c>
@@ -16850,7 +16868,7 @@
       <c r="A86" s="109">
         <v>152</v>
       </c>
-      <c r="B86" s="215"/>
+      <c r="B86" s="227"/>
       <c r="C86" s="111" t="s">
         <v>211</v>
       </c>
@@ -16888,7 +16906,7 @@
       <c r="A87" s="79">
         <v>153</v>
       </c>
-      <c r="B87" s="215"/>
+      <c r="B87" s="227"/>
       <c r="C87" s="89" t="s">
         <v>212</v>
       </c>
@@ -16926,7 +16944,7 @@
       <c r="A88" s="109">
         <v>154</v>
       </c>
-      <c r="B88" s="215"/>
+      <c r="B88" s="227"/>
       <c r="C88" s="111" t="s">
         <v>213</v>
       </c>
@@ -16964,7 +16982,7 @@
       <c r="A89" s="79">
         <v>155</v>
       </c>
-      <c r="B89" s="216"/>
+      <c r="B89" s="228"/>
       <c r="C89" s="89" t="s">
         <v>214</v>
       </c>
@@ -17017,14 +17035,14 @@
       <c r="M90" s="105"/>
     </row>
     <row r="91" spans="1:13" ht="15">
-      <c r="A91" s="227" t="s">
+      <c r="A91" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="218"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="218"/>
-      <c r="E91" s="218"/>
-      <c r="F91" s="219"/>
+      <c r="B91" s="219"/>
+      <c r="C91" s="219"/>
+      <c r="D91" s="219"/>
+      <c r="E91" s="219"/>
+      <c r="F91" s="220"/>
       <c r="G91" s="105"/>
       <c r="H91" s="106"/>
       <c r="I91" s="106"/>
@@ -17037,11 +17055,11 @@
       <c r="M91" s="105"/>
     </row>
     <row r="92" spans="1:13" ht="15">
-      <c r="A92" s="220"/>
-      <c r="B92" s="221"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="221"/>
-      <c r="E92" s="221"/>
+      <c r="A92" s="221"/>
+      <c r="B92" s="216"/>
+      <c r="C92" s="216"/>
+      <c r="D92" s="216"/>
+      <c r="E92" s="216"/>
       <c r="F92" s="222"/>
       <c r="G92" s="105"/>
       <c r="H92" s="106"/>
@@ -17106,7 +17124,7 @@
       <c r="A95" s="109">
         <v>156</v>
       </c>
-      <c r="B95" s="214" t="s">
+      <c r="B95" s="229" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="111" t="s">
@@ -17146,7 +17164,7 @@
       <c r="A96" s="79">
         <v>157</v>
       </c>
-      <c r="B96" s="215"/>
+      <c r="B96" s="227"/>
       <c r="C96" s="89" t="s">
         <v>216</v>
       </c>
@@ -17184,7 +17202,7 @@
       <c r="A97" s="109">
         <v>158</v>
       </c>
-      <c r="B97" s="215"/>
+      <c r="B97" s="227"/>
       <c r="C97" s="98" t="s">
         <v>217</v>
       </c>
@@ -17222,7 +17240,7 @@
       <c r="A98" s="79">
         <v>159</v>
       </c>
-      <c r="B98" s="215"/>
+      <c r="B98" s="227"/>
       <c r="C98" s="89" t="s">
         <v>218</v>
       </c>
@@ -17250,7 +17268,7 @@
       <c r="A99" s="109">
         <v>160</v>
       </c>
-      <c r="B99" s="216"/>
+      <c r="B99" s="228"/>
       <c r="C99" s="98" t="s">
         <v>219</v>
       </c>
@@ -17512,11 +17530,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A91:F93"/>
     <mergeCell ref="B95:B99"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
@@ -17526,6 +17539,11 @@
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B80:B89"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
@@ -17582,32 +17600,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="237" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="237" t="s">
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="238" t="s">
+      <c r="G1" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="239" t="s">
+      <c r="H1" s="240" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="232" t="s">
+      <c r="J1" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="233" t="s">
+      <c r="K1" s="234" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="233" t="s">
+      <c r="L1" s="234" t="s">
         <v>193</v>
       </c>
     </row>
@@ -17627,16 +17645,16 @@
       <c r="E2" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I44),COUNT(I3:I44)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="134">
@@ -18071,13 +18089,13 @@
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="1:14" ht="23.25">
-      <c r="A20" s="234" t="s">
+      <c r="A20" s="235" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="209"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="210"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="211"/>
       <c r="F20" s="143"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
@@ -18547,13 +18565,13 @@
       <c r="N38" s="139"/>
     </row>
     <row r="39" spans="1:14" ht="23.25">
-      <c r="A39" s="235" t="s">
+      <c r="A39" s="236" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="210"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="211"/>
       <c r="F39" s="143"/>
       <c r="G39" s="139"/>
       <c r="H39" s="139"/>
@@ -19000,32 +19018,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="241" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="237" t="s">
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="238" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="239" t="s">
+      <c r="G1" s="240" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="239" t="s">
+      <c r="H1" s="240" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="232" t="s">
+      <c r="J1" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="233" t="s">
+      <c r="K1" s="234" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="233" t="s">
+      <c r="L1" s="234" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19045,16 +19063,16 @@
       <c r="E2" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I68),COUNT(I3:I68)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
-      <c r="L2" s="221"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="162">
@@ -19647,13 +19665,13 @@
       <c r="L27" s="165"/>
     </row>
     <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="240" t="s">
+      <c r="A28" s="241" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="210"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="211"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
@@ -19989,13 +20007,13 @@
       <c r="L42" s="165"/>
     </row>
     <row r="43" spans="1:12" ht="23.25">
-      <c r="A43" s="240" t="s">
+      <c r="A43" s="241" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="209"/>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="210"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="210"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="211"/>
       <c r="F43" s="165"/>
       <c r="G43" s="165"/>
       <c r="H43" s="165"/>
@@ -20187,13 +20205,13 @@
       <c r="L51" s="165"/>
     </row>
     <row r="52" spans="1:12" ht="23.25">
-      <c r="A52" s="240" t="s">
+      <c r="A52" s="241" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="209"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="210"/>
+      <c r="B52" s="210"/>
+      <c r="C52" s="210"/>
+      <c r="D52" s="210"/>
+      <c r="E52" s="211"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="165"/>
@@ -20433,13 +20451,13 @@
       <c r="L62" s="165"/>
     </row>
     <row r="63" spans="1:12" ht="23.25">
-      <c r="A63" s="240" t="s">
+      <c r="A63" s="241" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="209"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="209"/>
-      <c r="E63" s="210"/>
+      <c r="B63" s="210"/>
+      <c r="C63" s="210"/>
+      <c r="D63" s="210"/>
+      <c r="E63" s="211"/>
       <c r="F63" s="165"/>
       <c r="G63" s="165"/>
       <c r="H63" s="165"/>
@@ -21141,17 +21159,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -21191,20 +21209,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="242" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="210"/>
-      <c r="G1" s="242" t="s">
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="211"/>
+      <c r="G1" s="243" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="211"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="183" t="s">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="343">
   <si>
     <t>Date</t>
   </si>
@@ -1396,6 +1396,21 @@
   </si>
   <si>
     <t>vectors1 linear dependence, basis vectors unit vectors and standard basis unit vectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOC(2.7) </t>
+  </si>
+  <si>
+    <t>More examples on DFA construction with min states</t>
+  </si>
+  <si>
+    <t>Nan</t>
+  </si>
+  <si>
+    <t>TOC(2.8,2.9,2.10)</t>
+  </si>
+  <si>
+    <t>DFA examples, binary, tinary,decimals and compound, union(or) and intersection(and)</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2044,7 @@
     <xf numFmtId="0" fontId="58" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2633,6 +2648,8 @@
     </xf>
     <xf numFmtId="0" fontId="59" fillId="11" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,7 +3103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3332,6 +3349,12 @@
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -3340,6 +3363,21 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="209" t="s">
+        <v>340</v>
+      </c>
+      <c r="E12" s="209" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="209" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="209" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="2">
@@ -3347,6 +3385,12 @@
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>341</v>
+      </c>
+      <c r="G13" s="210" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -5590,15 +5634,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="211" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="211"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="213"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -5622,15 +5666,15 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="212" t="s">
+      <c r="I2" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="216"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="9">
@@ -11037,50 +11081,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="231" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="217" t="s">
+      <c r="I1" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="217" t="s">
+      <c r="J1" s="219" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="221"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="223"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="15" t="s">
@@ -11101,9 +11145,9 @@
       <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="17" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -12412,7 +12456,7 @@
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="226" t="s">
+      <c r="B53" s="228" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -12439,7 +12483,7 @@
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="227"/>
+      <c r="B54" s="229"/>
       <c r="C54" s="27" t="s">
         <v>132</v>
       </c>
@@ -12464,7 +12508,7 @@
       <c r="A55" s="25">
         <v>51</v>
       </c>
-      <c r="B55" s="227"/>
+      <c r="B55" s="229"/>
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
@@ -12489,7 +12533,7 @@
       <c r="A56" s="25">
         <v>52</v>
       </c>
-      <c r="B56" s="227"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="27" t="s">
         <v>134</v>
       </c>
@@ -12514,7 +12558,7 @@
       <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="227"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="27" t="s">
         <v>135</v>
       </c>
@@ -12539,7 +12583,7 @@
       <c r="A58" s="25">
         <v>54</v>
       </c>
-      <c r="B58" s="227"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="27" t="s">
         <v>136</v>
       </c>
@@ -12564,7 +12608,7 @@
       <c r="A59" s="25">
         <v>55</v>
       </c>
-      <c r="B59" s="228"/>
+      <c r="B59" s="230"/>
       <c r="C59" s="27" t="s">
         <v>137</v>
       </c>
@@ -12601,14 +12645,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="218" t="s">
+      <c r="A61" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="219"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="219"/>
-      <c r="F61" s="220"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
+      <c r="E61" s="221"/>
+      <c r="F61" s="222"/>
       <c r="G61" s="37"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -12618,12 +12662,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="221"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="222"/>
+      <c r="A62" s="223"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="224"/>
       <c r="G62" s="37"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
@@ -12633,12 +12677,12 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="223"/>
-      <c r="B63" s="224"/>
-      <c r="C63" s="224"/>
-      <c r="D63" s="224"/>
-      <c r="E63" s="224"/>
-      <c r="F63" s="225"/>
+      <c r="A63" s="225"/>
+      <c r="B63" s="226"/>
+      <c r="C63" s="226"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="227"/>
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -12960,14 +13004,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="218" t="s">
+      <c r="A76" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="219"/>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="220"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="221"/>
+      <c r="D76" s="221"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="222"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -12977,12 +13021,12 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="221"/>
-      <c r="B77" s="216"/>
-      <c r="C77" s="216"/>
-      <c r="D77" s="216"/>
-      <c r="E77" s="216"/>
-      <c r="F77" s="222"/>
+      <c r="A77" s="223"/>
+      <c r="B77" s="218"/>
+      <c r="C77" s="218"/>
+      <c r="D77" s="218"/>
+      <c r="E77" s="218"/>
+      <c r="F77" s="224"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
@@ -12992,12 +13036,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="223"/>
-      <c r="B78" s="224"/>
-      <c r="C78" s="224"/>
-      <c r="D78" s="224"/>
-      <c r="E78" s="224"/>
-      <c r="F78" s="225"/>
+      <c r="A78" s="225"/>
+      <c r="B78" s="226"/>
+      <c r="C78" s="226"/>
+      <c r="D78" s="226"/>
+      <c r="E78" s="226"/>
+      <c r="F78" s="227"/>
       <c r="G78" s="37"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -13037,7 +13081,7 @@
       <c r="A80" s="48">
         <v>66</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="231" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -13064,7 +13108,7 @@
       <c r="A81" s="25">
         <v>67</v>
       </c>
-      <c r="B81" s="227"/>
+      <c r="B81" s="229"/>
       <c r="C81" s="27" t="s">
         <v>163</v>
       </c>
@@ -13089,7 +13133,7 @@
       <c r="A82" s="48">
         <v>68</v>
       </c>
-      <c r="B82" s="227"/>
+      <c r="B82" s="229"/>
       <c r="C82" s="50" t="s">
         <v>164</v>
       </c>
@@ -13114,7 +13158,7 @@
       <c r="A83" s="25">
         <v>69</v>
       </c>
-      <c r="B83" s="227"/>
+      <c r="B83" s="229"/>
       <c r="C83" s="27" t="s">
         <v>165</v>
       </c>
@@ -13139,7 +13183,7 @@
       <c r="A84" s="48">
         <v>70</v>
       </c>
-      <c r="B84" s="227"/>
+      <c r="B84" s="229"/>
       <c r="C84" s="50" t="s">
         <v>166</v>
       </c>
@@ -13164,7 +13208,7 @@
       <c r="A85" s="25">
         <v>71</v>
       </c>
-      <c r="B85" s="227"/>
+      <c r="B85" s="229"/>
       <c r="C85" s="27" t="s">
         <v>167</v>
       </c>
@@ -13189,7 +13233,7 @@
       <c r="A86" s="48">
         <v>72</v>
       </c>
-      <c r="B86" s="227"/>
+      <c r="B86" s="229"/>
       <c r="C86" s="50" t="s">
         <v>168</v>
       </c>
@@ -13214,7 +13258,7 @@
       <c r="A87" s="25">
         <v>73</v>
       </c>
-      <c r="B87" s="227"/>
+      <c r="B87" s="229"/>
       <c r="C87" s="27" t="s">
         <v>169</v>
       </c>
@@ -13239,7 +13283,7 @@
       <c r="A88" s="48">
         <v>74</v>
       </c>
-      <c r="B88" s="227"/>
+      <c r="B88" s="229"/>
       <c r="C88" s="50" t="s">
         <v>170</v>
       </c>
@@ -13264,7 +13308,7 @@
       <c r="A89" s="25">
         <v>75</v>
       </c>
-      <c r="B89" s="228"/>
+      <c r="B89" s="230"/>
       <c r="C89" s="27" t="s">
         <v>171</v>
       </c>
@@ -13301,14 +13345,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
-      <c r="A91" s="218" t="s">
+      <c r="A91" s="220" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="219"/>
-      <c r="C91" s="219"/>
-      <c r="D91" s="219"/>
-      <c r="E91" s="219"/>
-      <c r="F91" s="220"/>
+      <c r="B91" s="221"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="221"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="222"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -13318,12 +13362,12 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15">
-      <c r="A92" s="221"/>
-      <c r="B92" s="216"/>
-      <c r="C92" s="216"/>
-      <c r="D92" s="216"/>
-      <c r="E92" s="216"/>
-      <c r="F92" s="222"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="218"/>
+      <c r="D92" s="218"/>
+      <c r="E92" s="218"/>
+      <c r="F92" s="224"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
@@ -13333,12 +13377,12 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="223"/>
-      <c r="B93" s="224"/>
-      <c r="C93" s="224"/>
-      <c r="D93" s="224"/>
-      <c r="E93" s="224"/>
-      <c r="F93" s="225"/>
+      <c r="A93" s="225"/>
+      <c r="B93" s="226"/>
+      <c r="C93" s="226"/>
+      <c r="D93" s="226"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="227"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -13378,7 +13422,7 @@
       <c r="A95" s="48">
         <v>76</v>
       </c>
-      <c r="B95" s="229" t="s">
+      <c r="B95" s="231" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="50" t="s">
@@ -13405,7 +13449,7 @@
       <c r="A96" s="25">
         <v>77</v>
       </c>
-      <c r="B96" s="227"/>
+      <c r="B96" s="229"/>
       <c r="C96" s="27" t="s">
         <v>175</v>
       </c>
@@ -13430,7 +13474,7 @@
       <c r="A97" s="48">
         <v>78</v>
       </c>
-      <c r="B97" s="227"/>
+      <c r="B97" s="229"/>
       <c r="C97" s="34" t="s">
         <v>176</v>
       </c>
@@ -13455,7 +13499,7 @@
       <c r="A98" s="25">
         <v>79</v>
       </c>
-      <c r="B98" s="227"/>
+      <c r="B98" s="229"/>
       <c r="C98" s="27" t="s">
         <v>177</v>
       </c>
@@ -13480,7 +13524,7 @@
       <c r="A99" s="48">
         <v>80</v>
       </c>
-      <c r="B99" s="228"/>
+      <c r="B99" s="230"/>
       <c r="C99" s="34" t="s">
         <v>178</v>
       </c>
@@ -13742,68 +13786,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="220"/>
-      <c r="G1" s="231" t="s">
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="215" t="s">
+      <c r="H1" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="217" t="s">
+      <c r="I1" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="217" t="s">
+      <c r="J1" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="232" t="s">
+      <c r="K1" s="234" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="217" t="s">
+      <c r="L1" s="219" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="217" t="s">
+      <c r="M1" s="219" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="221"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="223"/>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
+      <c r="A3" s="225"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
       <c r="K3" s="75">
         <f>COUNTIF(K5:K100,"&lt;=10")</f>
         <v>33</v>
       </c>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
     </row>
     <row r="4" spans="1:13" ht="37.5">
       <c r="A4" s="76" t="s">
@@ -13824,9 +13868,9 @@
       <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="78" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -13835,8 +13879,8 @@
         <f>COUNT(K5:K100)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="216"/>
-      <c r="M4" s="216"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
     </row>
     <row r="5" spans="1:13" ht="45">
       <c r="A5" s="79">
@@ -15762,7 +15806,7 @@
       <c r="A53" s="79">
         <v>129</v>
       </c>
-      <c r="B53" s="226" t="s">
+      <c r="B53" s="228" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -15802,7 +15846,7 @@
       <c r="A54" s="79">
         <v>130</v>
       </c>
-      <c r="B54" s="227"/>
+      <c r="B54" s="229"/>
       <c r="C54" s="89" t="s">
         <v>132</v>
       </c>
@@ -15840,7 +15884,7 @@
       <c r="A55" s="79">
         <v>131</v>
       </c>
-      <c r="B55" s="227"/>
+      <c r="B55" s="229"/>
       <c r="C55" s="89" t="s">
         <v>133</v>
       </c>
@@ -15878,7 +15922,7 @@
       <c r="A56" s="79">
         <v>132</v>
       </c>
-      <c r="B56" s="227"/>
+      <c r="B56" s="229"/>
       <c r="C56" s="89" t="s">
         <v>134</v>
       </c>
@@ -15916,7 +15960,7 @@
       <c r="A57" s="79">
         <v>133</v>
       </c>
-      <c r="B57" s="227"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="89" t="s">
         <v>135</v>
       </c>
@@ -15954,7 +15998,7 @@
       <c r="A58" s="79">
         <v>134</v>
       </c>
-      <c r="B58" s="227"/>
+      <c r="B58" s="229"/>
       <c r="C58" s="89" t="s">
         <v>136</v>
       </c>
@@ -15992,7 +16036,7 @@
       <c r="A59" s="79">
         <v>135</v>
       </c>
-      <c r="B59" s="228"/>
+      <c r="B59" s="230"/>
       <c r="C59" s="89" t="s">
         <v>137</v>
       </c>
@@ -16045,14 +16089,14 @@
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="218" t="s">
+      <c r="A61" s="220" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="219"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="219"/>
-      <c r="E61" s="219"/>
-      <c r="F61" s="220"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="221"/>
+      <c r="D61" s="221"/>
+      <c r="E61" s="221"/>
+      <c r="F61" s="222"/>
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
@@ -16065,12 +16109,12 @@
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="221"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="216"/>
-      <c r="E62" s="216"/>
-      <c r="F62" s="222"/>
+      <c r="A62" s="223"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
+      <c r="D62" s="218"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="224"/>
       <c r="G62" s="105"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
@@ -16083,12 +16127,12 @@
       <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:13" ht="15">
-      <c r="A63" s="223"/>
-      <c r="B63" s="224"/>
-      <c r="C63" s="224"/>
-      <c r="D63" s="224"/>
-      <c r="E63" s="224"/>
-      <c r="F63" s="225"/>
+      <c r="A63" s="225"/>
+      <c r="B63" s="226"/>
+      <c r="C63" s="226"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="227"/>
       <c r="G63" s="105"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
@@ -16549,14 +16593,14 @@
       <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:13" ht="15">
-      <c r="A76" s="218" t="s">
+      <c r="A76" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="219"/>
-      <c r="C76" s="219"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="219"/>
-      <c r="F76" s="220"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="221"/>
+      <c r="D76" s="221"/>
+      <c r="E76" s="221"/>
+      <c r="F76" s="222"/>
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
@@ -16569,12 +16613,12 @@
       <c r="M76" s="105"/>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="221"/>
-      <c r="B77" s="216"/>
-      <c r="C77" s="216"/>
-      <c r="D77" s="216"/>
-      <c r="E77" s="216"/>
-      <c r="F77" s="222"/>
+      <c r="A77" s="223"/>
+      <c r="B77" s="218"/>
+      <c r="C77" s="218"/>
+      <c r="D77" s="218"/>
+      <c r="E77" s="218"/>
+      <c r="F77" s="224"/>
       <c r="G77" s="105"/>
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
@@ -16587,12 +16631,12 @@
       <c r="M77" s="105"/>
     </row>
     <row r="78" spans="1:13" ht="15">
-      <c r="A78" s="223"/>
-      <c r="B78" s="224"/>
-      <c r="C78" s="224"/>
-      <c r="D78" s="224"/>
-      <c r="E78" s="224"/>
-      <c r="F78" s="225"/>
+      <c r="A78" s="225"/>
+      <c r="B78" s="226"/>
+      <c r="C78" s="226"/>
+      <c r="D78" s="226"/>
+      <c r="E78" s="226"/>
+      <c r="F78" s="227"/>
       <c r="G78" s="105"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
@@ -16638,7 +16682,7 @@
       <c r="A80" s="109">
         <v>146</v>
       </c>
-      <c r="B80" s="229" t="s">
+      <c r="B80" s="231" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="111" t="s">
@@ -16678,7 +16722,7 @@
       <c r="A81" s="79">
         <v>147</v>
       </c>
-      <c r="B81" s="227"/>
+      <c r="B81" s="229"/>
       <c r="C81" s="89" t="s">
         <v>206</v>
       </c>
@@ -16716,7 +16760,7 @@
       <c r="A82" s="109">
         <v>148</v>
       </c>
-      <c r="B82" s="227"/>
+      <c r="B82" s="229"/>
       <c r="C82" s="111" t="s">
         <v>207</v>
       </c>
@@ -16754,7 +16798,7 @@
       <c r="A83" s="79">
         <v>149</v>
       </c>
-      <c r="B83" s="227"/>
+      <c r="B83" s="229"/>
       <c r="C83" s="89" t="s">
         <v>208</v>
       </c>
@@ -16792,7 +16836,7 @@
       <c r="A84" s="109">
         <v>150</v>
       </c>
-      <c r="B84" s="227"/>
+      <c r="B84" s="229"/>
       <c r="C84" s="111" t="s">
         <v>209</v>
       </c>
@@ -16830,7 +16874,7 @@
       <c r="A85" s="79">
         <v>151</v>
       </c>
-      <c r="B85" s="227"/>
+      <c r="B85" s="229"/>
       <c r="C85" s="89" t="s">
         <v>210</v>
       </c>
@@ -16868,7 +16912,7 @@
       <c r="A86" s="109">
         <v>152</v>
       </c>
-      <c r="B86" s="227"/>
+      <c r="B86" s="229"/>
       <c r="C86" s="111" t="s">
         <v>211</v>
       </c>
@@ -16906,7 +16950,7 @@
       <c r="A87" s="79">
         <v>153</v>
       </c>
-      <c r="B87" s="227"/>
+      <c r="B87" s="229"/>
       <c r="C87" s="89" t="s">
         <v>212</v>
       </c>
@@ -16944,7 +16988,7 @@
       <c r="A88" s="109">
         <v>154</v>
       </c>
-      <c r="B88" s="227"/>
+      <c r="B88" s="229"/>
       <c r="C88" s="111" t="s">
         <v>213</v>
       </c>
@@ -16982,7 +17026,7 @@
       <c r="A89" s="79">
         <v>155</v>
       </c>
-      <c r="B89" s="228"/>
+      <c r="B89" s="230"/>
       <c r="C89" s="89" t="s">
         <v>214</v>
       </c>
@@ -17035,14 +17079,14 @@
       <c r="M90" s="105"/>
     </row>
     <row r="91" spans="1:13" ht="15">
-      <c r="A91" s="218" t="s">
+      <c r="A91" s="220" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="219"/>
-      <c r="C91" s="219"/>
-      <c r="D91" s="219"/>
-      <c r="E91" s="219"/>
-      <c r="F91" s="220"/>
+      <c r="B91" s="221"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="221"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="222"/>
       <c r="G91" s="105"/>
       <c r="H91" s="106"/>
       <c r="I91" s="106"/>
@@ -17055,12 +17099,12 @@
       <c r="M91" s="105"/>
     </row>
     <row r="92" spans="1:13" ht="15">
-      <c r="A92" s="221"/>
-      <c r="B92" s="216"/>
-      <c r="C92" s="216"/>
-      <c r="D92" s="216"/>
-      <c r="E92" s="216"/>
-      <c r="F92" s="222"/>
+      <c r="A92" s="223"/>
+      <c r="B92" s="218"/>
+      <c r="C92" s="218"/>
+      <c r="D92" s="218"/>
+      <c r="E92" s="218"/>
+      <c r="F92" s="224"/>
       <c r="G92" s="105"/>
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
@@ -17073,12 +17117,12 @@
       <c r="M92" s="105"/>
     </row>
     <row r="93" spans="1:13" ht="15">
-      <c r="A93" s="223"/>
-      <c r="B93" s="224"/>
-      <c r="C93" s="224"/>
-      <c r="D93" s="224"/>
-      <c r="E93" s="224"/>
-      <c r="F93" s="225"/>
+      <c r="A93" s="225"/>
+      <c r="B93" s="226"/>
+      <c r="C93" s="226"/>
+      <c r="D93" s="226"/>
+      <c r="E93" s="226"/>
+      <c r="F93" s="227"/>
       <c r="G93" s="105"/>
       <c r="H93" s="106"/>
       <c r="I93" s="106"/>
@@ -17124,7 +17168,7 @@
       <c r="A95" s="109">
         <v>156</v>
       </c>
-      <c r="B95" s="229" t="s">
+      <c r="B95" s="231" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="111" t="s">
@@ -17164,7 +17208,7 @@
       <c r="A96" s="79">
         <v>157</v>
       </c>
-      <c r="B96" s="227"/>
+      <c r="B96" s="229"/>
       <c r="C96" s="89" t="s">
         <v>216</v>
       </c>
@@ -17202,7 +17246,7 @@
       <c r="A97" s="109">
         <v>158</v>
       </c>
-      <c r="B97" s="227"/>
+      <c r="B97" s="229"/>
       <c r="C97" s="98" t="s">
         <v>217</v>
       </c>
@@ -17240,7 +17284,7 @@
       <c r="A98" s="79">
         <v>159</v>
       </c>
-      <c r="B98" s="227"/>
+      <c r="B98" s="229"/>
       <c r="C98" s="89" t="s">
         <v>218</v>
       </c>
@@ -17268,7 +17312,7 @@
       <c r="A99" s="109">
         <v>160</v>
       </c>
-      <c r="B99" s="228"/>
+      <c r="B99" s="230"/>
       <c r="C99" s="98" t="s">
         <v>219</v>
       </c>
@@ -17600,32 +17644,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="239" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="238" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="239" t="s">
+      <c r="G1" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="240" t="s">
+      <c r="H1" s="242" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="233" t="s">
+      <c r="J1" s="235" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="236" t="s">
         <v>193</v>
       </c>
     </row>
@@ -17645,16 +17689,16 @@
       <c r="E2" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I44),COUNT(I3:I44)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="134">
@@ -18089,13 +18133,13 @@
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="1:14" ht="23.25">
-      <c r="A20" s="235" t="s">
+      <c r="A20" s="237" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="210"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="211"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
       <c r="F20" s="143"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
@@ -18565,13 +18609,13 @@
       <c r="N38" s="139"/>
     </row>
     <row r="39" spans="1:14" ht="23.25">
-      <c r="A39" s="236" t="s">
+      <c r="A39" s="238" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="210"/>
-      <c r="E39" s="211"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="213"/>
       <c r="F39" s="143"/>
       <c r="G39" s="139"/>
       <c r="H39" s="139"/>
@@ -19018,32 +19062,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="243" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="238" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="240" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="240" t="s">
+      <c r="G1" s="242" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="240" t="s">
+      <c r="H1" s="242" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="233" t="s">
+      <c r="J1" s="235" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="234" t="s">
+      <c r="L1" s="236" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19063,16 +19107,16 @@
       <c r="E2" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I68),COUNT(I3:I68)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="162">
@@ -19665,13 +19709,13 @@
       <c r="L27" s="165"/>
     </row>
     <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="241" t="s">
+      <c r="A28" s="243" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="210"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="211"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
@@ -20007,13 +20051,13 @@
       <c r="L42" s="165"/>
     </row>
     <row r="43" spans="1:12" ht="23.25">
-      <c r="A43" s="241" t="s">
+      <c r="A43" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="210"/>
-      <c r="C43" s="210"/>
-      <c r="D43" s="210"/>
-      <c r="E43" s="211"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="213"/>
       <c r="F43" s="165"/>
       <c r="G43" s="165"/>
       <c r="H43" s="165"/>
@@ -20205,13 +20249,13 @@
       <c r="L51" s="165"/>
     </row>
     <row r="52" spans="1:12" ht="23.25">
-      <c r="A52" s="241" t="s">
+      <c r="A52" s="243" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="210"/>
-      <c r="C52" s="210"/>
-      <c r="D52" s="210"/>
-      <c r="E52" s="211"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="212"/>
+      <c r="E52" s="213"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="165"/>
@@ -20451,13 +20495,13 @@
       <c r="L62" s="165"/>
     </row>
     <row r="63" spans="1:12" ht="23.25">
-      <c r="A63" s="241" t="s">
+      <c r="A63" s="243" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="210"/>
-      <c r="C63" s="210"/>
-      <c r="D63" s="210"/>
-      <c r="E63" s="211"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="212"/>
+      <c r="D63" s="212"/>
+      <c r="E63" s="213"/>
       <c r="F63" s="165"/>
       <c r="G63" s="165"/>
       <c r="H63" s="165"/>
@@ -21209,20 +21253,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="244" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="211"/>
-      <c r="G1" s="243" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="213"/>
+      <c r="G1" s="245" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="211"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="213"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="183" t="s">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="346">
   <si>
     <t>Date</t>
   </si>
@@ -1411,6 +1411,15 @@
   </si>
   <si>
     <t>DFA examples, binary, tinary,decimals and compound, union(or) and intersection(and)</t>
+  </si>
+  <si>
+    <t>counting DFA,NFA E-NFA's,coverting NFA to DFA and epsilon nfa to dfa</t>
+  </si>
+  <si>
+    <t>TOC() CP()</t>
+  </si>
+  <si>
+    <t>CP - basics</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2053,7 @@
     <xf numFmtId="0" fontId="58" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2650,6 +2659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,36 +2674,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
@@ -3103,7 +3113,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3399,6 +3409,15 @@
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="211" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -5634,15 +5653,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="212" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="214"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -5666,15 +5685,15 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="214" t="s">
+      <c r="I2" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="9">
@@ -11081,50 +11100,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="233" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="217" t="s">
+      <c r="H1" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="219" t="s">
+      <c r="I1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="233" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75">
-      <c r="A2" s="223"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
     </row>
     <row r="4" spans="1:11" ht="37.5">
       <c r="A4" s="15" t="s">
@@ -11145,9 +11164,9 @@
       <c r="F4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
       <c r="J4" s="17" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -12456,7 +12475,7 @@
       <c r="A53" s="25">
         <v>49</v>
       </c>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="234" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -12483,7 +12502,7 @@
       <c r="A54" s="25">
         <v>50</v>
       </c>
-      <c r="B54" s="229"/>
+      <c r="B54" s="219"/>
       <c r="C54" s="27" t="s">
         <v>132</v>
       </c>
@@ -12508,7 +12527,7 @@
       <c r="A55" s="25">
         <v>51</v>
       </c>
-      <c r="B55" s="229"/>
+      <c r="B55" s="219"/>
       <c r="C55" s="27" t="s">
         <v>133</v>
       </c>
@@ -12533,7 +12552,7 @@
       <c r="A56" s="25">
         <v>52</v>
       </c>
-      <c r="B56" s="229"/>
+      <c r="B56" s="219"/>
       <c r="C56" s="27" t="s">
         <v>134</v>
       </c>
@@ -12558,7 +12577,7 @@
       <c r="A57" s="25">
         <v>53</v>
       </c>
-      <c r="B57" s="229"/>
+      <c r="B57" s="219"/>
       <c r="C57" s="27" t="s">
         <v>135</v>
       </c>
@@ -12583,7 +12602,7 @@
       <c r="A58" s="25">
         <v>54</v>
       </c>
-      <c r="B58" s="229"/>
+      <c r="B58" s="219"/>
       <c r="C58" s="27" t="s">
         <v>136</v>
       </c>
@@ -12608,7 +12627,7 @@
       <c r="A59" s="25">
         <v>55</v>
       </c>
-      <c r="B59" s="230"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="27" t="s">
         <v>137</v>
       </c>
@@ -12645,14 +12664,14 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="220" t="s">
+      <c r="A61" s="231" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="221"/>
-      <c r="C61" s="221"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="221"/>
-      <c r="F61" s="222"/>
+      <c r="B61" s="222"/>
+      <c r="C61" s="222"/>
+      <c r="D61" s="222"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="223"/>
       <c r="G61" s="37"/>
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
@@ -12662,12 +12681,12 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="223"/>
-      <c r="B62" s="218"/>
-      <c r="C62" s="218"/>
-      <c r="D62" s="218"/>
-      <c r="E62" s="218"/>
-      <c r="F62" s="224"/>
+      <c r="A62" s="224"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="225"/>
+      <c r="E62" s="225"/>
+      <c r="F62" s="226"/>
       <c r="G62" s="37"/>
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
@@ -12677,12 +12696,12 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="225"/>
-      <c r="B63" s="226"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226"/>
-      <c r="F63" s="227"/>
+      <c r="A63" s="227"/>
+      <c r="B63" s="228"/>
+      <c r="C63" s="228"/>
+      <c r="D63" s="228"/>
+      <c r="E63" s="228"/>
+      <c r="F63" s="229"/>
       <c r="G63" s="37"/>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -13004,14 +13023,14 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="15">
-      <c r="A76" s="220" t="s">
+      <c r="A76" s="231" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="221"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="221"/>
-      <c r="E76" s="221"/>
-      <c r="F76" s="222"/>
+      <c r="B76" s="222"/>
+      <c r="C76" s="222"/>
+      <c r="D76" s="222"/>
+      <c r="E76" s="222"/>
+      <c r="F76" s="223"/>
       <c r="G76" s="37"/>
       <c r="H76" s="38"/>
       <c r="I76" s="38"/>
@@ -13021,12 +13040,12 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="A77" s="223"/>
-      <c r="B77" s="218"/>
-      <c r="C77" s="218"/>
-      <c r="D77" s="218"/>
-      <c r="E77" s="218"/>
-      <c r="F77" s="224"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="225"/>
+      <c r="C77" s="225"/>
+      <c r="D77" s="225"/>
+      <c r="E77" s="225"/>
+      <c r="F77" s="226"/>
       <c r="G77" s="37"/>
       <c r="H77" s="38"/>
       <c r="I77" s="38"/>
@@ -13036,12 +13055,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="A78" s="225"/>
-      <c r="B78" s="226"/>
-      <c r="C78" s="226"/>
-      <c r="D78" s="226"/>
-      <c r="E78" s="226"/>
-      <c r="F78" s="227"/>
+      <c r="A78" s="227"/>
+      <c r="B78" s="228"/>
+      <c r="C78" s="228"/>
+      <c r="D78" s="228"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="229"/>
       <c r="G78" s="37"/>
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
@@ -13081,7 +13100,7 @@
       <c r="A80" s="48">
         <v>66</v>
       </c>
-      <c r="B80" s="231" t="s">
+      <c r="B80" s="218" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="50" t="s">
@@ -13108,7 +13127,7 @@
       <c r="A81" s="25">
         <v>67</v>
       </c>
-      <c r="B81" s="229"/>
+      <c r="B81" s="219"/>
       <c r="C81" s="27" t="s">
         <v>163</v>
       </c>
@@ -13133,7 +13152,7 @@
       <c r="A82" s="48">
         <v>68</v>
       </c>
-      <c r="B82" s="229"/>
+      <c r="B82" s="219"/>
       <c r="C82" s="50" t="s">
         <v>164</v>
       </c>
@@ -13158,7 +13177,7 @@
       <c r="A83" s="25">
         <v>69</v>
       </c>
-      <c r="B83" s="229"/>
+      <c r="B83" s="219"/>
       <c r="C83" s="27" t="s">
         <v>165</v>
       </c>
@@ -13183,7 +13202,7 @@
       <c r="A84" s="48">
         <v>70</v>
       </c>
-      <c r="B84" s="229"/>
+      <c r="B84" s="219"/>
       <c r="C84" s="50" t="s">
         <v>166</v>
       </c>
@@ -13208,7 +13227,7 @@
       <c r="A85" s="25">
         <v>71</v>
       </c>
-      <c r="B85" s="229"/>
+      <c r="B85" s="219"/>
       <c r="C85" s="27" t="s">
         <v>167</v>
       </c>
@@ -13233,7 +13252,7 @@
       <c r="A86" s="48">
         <v>72</v>
       </c>
-      <c r="B86" s="229"/>
+      <c r="B86" s="219"/>
       <c r="C86" s="50" t="s">
         <v>168</v>
       </c>
@@ -13258,7 +13277,7 @@
       <c r="A87" s="25">
         <v>73</v>
       </c>
-      <c r="B87" s="229"/>
+      <c r="B87" s="219"/>
       <c r="C87" s="27" t="s">
         <v>169</v>
       </c>
@@ -13283,7 +13302,7 @@
       <c r="A88" s="48">
         <v>74</v>
       </c>
-      <c r="B88" s="229"/>
+      <c r="B88" s="219"/>
       <c r="C88" s="50" t="s">
         <v>170</v>
       </c>
@@ -13308,7 +13327,7 @@
       <c r="A89" s="25">
         <v>75</v>
       </c>
-      <c r="B89" s="230"/>
+      <c r="B89" s="220"/>
       <c r="C89" s="27" t="s">
         <v>171</v>
       </c>
@@ -13345,14 +13364,14 @@
       </c>
     </row>
     <row r="91" spans="1:10" ht="15">
-      <c r="A91" s="220" t="s">
+      <c r="A91" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="221"/>
-      <c r="C91" s="221"/>
-      <c r="D91" s="221"/>
-      <c r="E91" s="221"/>
-      <c r="F91" s="222"/>
+      <c r="B91" s="222"/>
+      <c r="C91" s="222"/>
+      <c r="D91" s="222"/>
+      <c r="E91" s="222"/>
+      <c r="F91" s="223"/>
       <c r="G91" s="37"/>
       <c r="H91" s="38"/>
       <c r="I91" s="38"/>
@@ -13362,12 +13381,12 @@
       </c>
     </row>
     <row r="92" spans="1:10" ht="15">
-      <c r="A92" s="223"/>
-      <c r="B92" s="218"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="218"/>
-      <c r="E92" s="218"/>
-      <c r="F92" s="224"/>
+      <c r="A92" s="224"/>
+      <c r="B92" s="225"/>
+      <c r="C92" s="225"/>
+      <c r="D92" s="225"/>
+      <c r="E92" s="225"/>
+      <c r="F92" s="226"/>
       <c r="G92" s="37"/>
       <c r="H92" s="38"/>
       <c r="I92" s="38"/>
@@ -13377,12 +13396,12 @@
       </c>
     </row>
     <row r="93" spans="1:10" ht="15">
-      <c r="A93" s="225"/>
-      <c r="B93" s="226"/>
-      <c r="C93" s="226"/>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="227"/>
+      <c r="A93" s="227"/>
+      <c r="B93" s="228"/>
+      <c r="C93" s="228"/>
+      <c r="D93" s="228"/>
+      <c r="E93" s="228"/>
+      <c r="F93" s="229"/>
       <c r="G93" s="37"/>
       <c r="H93" s="38"/>
       <c r="I93" s="38"/>
@@ -13422,7 +13441,7 @@
       <c r="A95" s="48">
         <v>76</v>
       </c>
-      <c r="B95" s="231" t="s">
+      <c r="B95" s="218" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="50" t="s">
@@ -13449,7 +13468,7 @@
       <c r="A96" s="25">
         <v>77</v>
       </c>
-      <c r="B96" s="229"/>
+      <c r="B96" s="219"/>
       <c r="C96" s="27" t="s">
         <v>175</v>
       </c>
@@ -13474,7 +13493,7 @@
       <c r="A97" s="48">
         <v>78</v>
       </c>
-      <c r="B97" s="229"/>
+      <c r="B97" s="219"/>
       <c r="C97" s="34" t="s">
         <v>176</v>
       </c>
@@ -13499,7 +13518,7 @@
       <c r="A98" s="25">
         <v>79</v>
       </c>
-      <c r="B98" s="229"/>
+      <c r="B98" s="219"/>
       <c r="C98" s="27" t="s">
         <v>177</v>
       </c>
@@ -13524,7 +13543,7 @@
       <c r="A99" s="48">
         <v>80</v>
       </c>
-      <c r="B99" s="230"/>
+      <c r="B99" s="220"/>
       <c r="C99" s="34" t="s">
         <v>178</v>
       </c>
@@ -13727,17 +13746,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B80:B89"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="A91:F93"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B80:B89"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
@@ -13786,68 +13805,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="233" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="217" t="s">
+      <c r="H1" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="219" t="s">
+      <c r="I1" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="235" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="219" t="s">
+      <c r="L1" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="219" t="s">
+      <c r="M1" s="233" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="223"/>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
+      <c r="A2" s="224"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
     </row>
     <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
+      <c r="A3" s="227"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
       <c r="K3" s="75">
         <f>COUNTIF(K5:K100,"&lt;=10")</f>
         <v>33</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
     </row>
     <row r="4" spans="1:13" ht="37.5">
       <c r="A4" s="76" t="s">
@@ -13868,9 +13887,9 @@
       <c r="F4" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="218"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="218"/>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
       <c r="J4" s="78" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(J5:J99),COUNT(J5:J99)),100),1)</f>
         <v>#NAME?</v>
@@ -13879,8 +13898,8 @@
         <f>COUNT(K5:K100)</f>
         <v>78</v>
       </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="218"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
     </row>
     <row r="5" spans="1:13" ht="45">
       <c r="A5" s="79">
@@ -15806,7 +15825,7 @@
       <c r="A53" s="79">
         <v>129</v>
       </c>
-      <c r="B53" s="228" t="s">
+      <c r="B53" s="234" t="s">
         <v>130</v>
       </c>
       <c r="C53" s="89" t="s">
@@ -15846,7 +15865,7 @@
       <c r="A54" s="79">
         <v>130</v>
       </c>
-      <c r="B54" s="229"/>
+      <c r="B54" s="219"/>
       <c r="C54" s="89" t="s">
         <v>132</v>
       </c>
@@ -15884,7 +15903,7 @@
       <c r="A55" s="79">
         <v>131</v>
       </c>
-      <c r="B55" s="229"/>
+      <c r="B55" s="219"/>
       <c r="C55" s="89" t="s">
         <v>133</v>
       </c>
@@ -15922,7 +15941,7 @@
       <c r="A56" s="79">
         <v>132</v>
       </c>
-      <c r="B56" s="229"/>
+      <c r="B56" s="219"/>
       <c r="C56" s="89" t="s">
         <v>134</v>
       </c>
@@ -15960,7 +15979,7 @@
       <c r="A57" s="79">
         <v>133</v>
       </c>
-      <c r="B57" s="229"/>
+      <c r="B57" s="219"/>
       <c r="C57" s="89" t="s">
         <v>135</v>
       </c>
@@ -15998,7 +16017,7 @@
       <c r="A58" s="79">
         <v>134</v>
       </c>
-      <c r="B58" s="229"/>
+      <c r="B58" s="219"/>
       <c r="C58" s="89" t="s">
         <v>136</v>
       </c>
@@ -16036,7 +16055,7 @@
       <c r="A59" s="79">
         <v>135</v>
       </c>
-      <c r="B59" s="230"/>
+      <c r="B59" s="220"/>
       <c r="C59" s="89" t="s">
         <v>137</v>
       </c>
@@ -16089,14 +16108,14 @@
       <c r="M60" s="105"/>
     </row>
     <row r="61" spans="1:13" ht="15">
-      <c r="A61" s="220" t="s">
+      <c r="A61" s="231" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="221"/>
-      <c r="C61" s="221"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="221"/>
-      <c r="F61" s="222"/>
+      <c r="B61" s="222"/>
+      <c r="C61" s="222"/>
+      <c r="D61" s="222"/>
+      <c r="E61" s="222"/>
+      <c r="F61" s="223"/>
       <c r="G61" s="105"/>
       <c r="H61" s="106"/>
       <c r="I61" s="106"/>
@@ -16109,12 +16128,12 @@
       <c r="M61" s="105"/>
     </row>
     <row r="62" spans="1:13" ht="15">
-      <c r="A62" s="223"/>
-      <c r="B62" s="218"/>
-      <c r="C62" s="218"/>
-      <c r="D62" s="218"/>
-      <c r="E62" s="218"/>
-      <c r="F62" s="224"/>
+      <c r="A62" s="224"/>
+      <c r="B62" s="225"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="225"/>
+      <c r="E62" s="225"/>
+      <c r="F62" s="226"/>
       <c r="G62" s="105"/>
       <c r="H62" s="106"/>
       <c r="I62" s="106"/>
@@ -16127,12 +16146,12 @@
       <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:13" ht="15">
-      <c r="A63" s="225"/>
-      <c r="B63" s="226"/>
-      <c r="C63" s="226"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="226"/>
-      <c r="F63" s="227"/>
+      <c r="A63" s="227"/>
+      <c r="B63" s="228"/>
+      <c r="C63" s="228"/>
+      <c r="D63" s="228"/>
+      <c r="E63" s="228"/>
+      <c r="F63" s="229"/>
       <c r="G63" s="105"/>
       <c r="H63" s="106"/>
       <c r="I63" s="106"/>
@@ -16593,14 +16612,14 @@
       <c r="M75" s="105"/>
     </row>
     <row r="76" spans="1:13" ht="15">
-      <c r="A76" s="220" t="s">
+      <c r="A76" s="231" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="221"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="221"/>
-      <c r="E76" s="221"/>
-      <c r="F76" s="222"/>
+      <c r="B76" s="222"/>
+      <c r="C76" s="222"/>
+      <c r="D76" s="222"/>
+      <c r="E76" s="222"/>
+      <c r="F76" s="223"/>
       <c r="G76" s="105"/>
       <c r="H76" s="106"/>
       <c r="I76" s="106"/>
@@ -16613,12 +16632,12 @@
       <c r="M76" s="105"/>
     </row>
     <row r="77" spans="1:13" ht="15">
-      <c r="A77" s="223"/>
-      <c r="B77" s="218"/>
-      <c r="C77" s="218"/>
-      <c r="D77" s="218"/>
-      <c r="E77" s="218"/>
-      <c r="F77" s="224"/>
+      <c r="A77" s="224"/>
+      <c r="B77" s="225"/>
+      <c r="C77" s="225"/>
+      <c r="D77" s="225"/>
+      <c r="E77" s="225"/>
+      <c r="F77" s="226"/>
       <c r="G77" s="105"/>
       <c r="H77" s="106"/>
       <c r="I77" s="106"/>
@@ -16631,12 +16650,12 @@
       <c r="M77" s="105"/>
     </row>
     <row r="78" spans="1:13" ht="15">
-      <c r="A78" s="225"/>
-      <c r="B78" s="226"/>
-      <c r="C78" s="226"/>
-      <c r="D78" s="226"/>
-      <c r="E78" s="226"/>
-      <c r="F78" s="227"/>
+      <c r="A78" s="227"/>
+      <c r="B78" s="228"/>
+      <c r="C78" s="228"/>
+      <c r="D78" s="228"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="229"/>
       <c r="G78" s="105"/>
       <c r="H78" s="106"/>
       <c r="I78" s="106"/>
@@ -16682,7 +16701,7 @@
       <c r="A80" s="109">
         <v>146</v>
       </c>
-      <c r="B80" s="231" t="s">
+      <c r="B80" s="218" t="s">
         <v>160</v>
       </c>
       <c r="C80" s="111" t="s">
@@ -16722,7 +16741,7 @@
       <c r="A81" s="79">
         <v>147</v>
       </c>
-      <c r="B81" s="229"/>
+      <c r="B81" s="219"/>
       <c r="C81" s="89" t="s">
         <v>206</v>
       </c>
@@ -16760,7 +16779,7 @@
       <c r="A82" s="109">
         <v>148</v>
       </c>
-      <c r="B82" s="229"/>
+      <c r="B82" s="219"/>
       <c r="C82" s="111" t="s">
         <v>207</v>
       </c>
@@ -16798,7 +16817,7 @@
       <c r="A83" s="79">
         <v>149</v>
       </c>
-      <c r="B83" s="229"/>
+      <c r="B83" s="219"/>
       <c r="C83" s="89" t="s">
         <v>208</v>
       </c>
@@ -16836,7 +16855,7 @@
       <c r="A84" s="109">
         <v>150</v>
       </c>
-      <c r="B84" s="229"/>
+      <c r="B84" s="219"/>
       <c r="C84" s="111" t="s">
         <v>209</v>
       </c>
@@ -16874,7 +16893,7 @@
       <c r="A85" s="79">
         <v>151</v>
       </c>
-      <c r="B85" s="229"/>
+      <c r="B85" s="219"/>
       <c r="C85" s="89" t="s">
         <v>210</v>
       </c>
@@ -16912,7 +16931,7 @@
       <c r="A86" s="109">
         <v>152</v>
       </c>
-      <c r="B86" s="229"/>
+      <c r="B86" s="219"/>
       <c r="C86" s="111" t="s">
         <v>211</v>
       </c>
@@ -16950,7 +16969,7 @@
       <c r="A87" s="79">
         <v>153</v>
       </c>
-      <c r="B87" s="229"/>
+      <c r="B87" s="219"/>
       <c r="C87" s="89" t="s">
         <v>212</v>
       </c>
@@ -16988,7 +17007,7 @@
       <c r="A88" s="109">
         <v>154</v>
       </c>
-      <c r="B88" s="229"/>
+      <c r="B88" s="219"/>
       <c r="C88" s="111" t="s">
         <v>213</v>
       </c>
@@ -17026,7 +17045,7 @@
       <c r="A89" s="79">
         <v>155</v>
       </c>
-      <c r="B89" s="230"/>
+      <c r="B89" s="220"/>
       <c r="C89" s="89" t="s">
         <v>214</v>
       </c>
@@ -17079,14 +17098,14 @@
       <c r="M90" s="105"/>
     </row>
     <row r="91" spans="1:13" ht="15">
-      <c r="A91" s="220" t="s">
+      <c r="A91" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="221"/>
-      <c r="C91" s="221"/>
-      <c r="D91" s="221"/>
-      <c r="E91" s="221"/>
-      <c r="F91" s="222"/>
+      <c r="B91" s="222"/>
+      <c r="C91" s="222"/>
+      <c r="D91" s="222"/>
+      <c r="E91" s="222"/>
+      <c r="F91" s="223"/>
       <c r="G91" s="105"/>
       <c r="H91" s="106"/>
       <c r="I91" s="106"/>
@@ -17099,12 +17118,12 @@
       <c r="M91" s="105"/>
     </row>
     <row r="92" spans="1:13" ht="15">
-      <c r="A92" s="223"/>
-      <c r="B92" s="218"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="218"/>
-      <c r="E92" s="218"/>
-      <c r="F92" s="224"/>
+      <c r="A92" s="224"/>
+      <c r="B92" s="225"/>
+      <c r="C92" s="225"/>
+      <c r="D92" s="225"/>
+      <c r="E92" s="225"/>
+      <c r="F92" s="226"/>
       <c r="G92" s="105"/>
       <c r="H92" s="106"/>
       <c r="I92" s="106"/>
@@ -17117,12 +17136,12 @@
       <c r="M92" s="105"/>
     </row>
     <row r="93" spans="1:13" ht="15">
-      <c r="A93" s="225"/>
-      <c r="B93" s="226"/>
-      <c r="C93" s="226"/>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="227"/>
+      <c r="A93" s="227"/>
+      <c r="B93" s="228"/>
+      <c r="C93" s="228"/>
+      <c r="D93" s="228"/>
+      <c r="E93" s="228"/>
+      <c r="F93" s="229"/>
       <c r="G93" s="105"/>
       <c r="H93" s="106"/>
       <c r="I93" s="106"/>
@@ -17168,7 +17187,7 @@
       <c r="A95" s="109">
         <v>156</v>
       </c>
-      <c r="B95" s="231" t="s">
+      <c r="B95" s="218" t="s">
         <v>173</v>
       </c>
       <c r="C95" s="111" t="s">
@@ -17208,7 +17227,7 @@
       <c r="A96" s="79">
         <v>157</v>
       </c>
-      <c r="B96" s="229"/>
+      <c r="B96" s="219"/>
       <c r="C96" s="89" t="s">
         <v>216</v>
       </c>
@@ -17246,7 +17265,7 @@
       <c r="A97" s="109">
         <v>158</v>
       </c>
-      <c r="B97" s="229"/>
+      <c r="B97" s="219"/>
       <c r="C97" s="98" t="s">
         <v>217</v>
       </c>
@@ -17284,7 +17303,7 @@
       <c r="A98" s="79">
         <v>159</v>
       </c>
-      <c r="B98" s="229"/>
+      <c r="B98" s="219"/>
       <c r="C98" s="89" t="s">
         <v>218</v>
       </c>
@@ -17312,7 +17331,7 @@
       <c r="A99" s="109">
         <v>160</v>
       </c>
-      <c r="B99" s="230"/>
+      <c r="B99" s="220"/>
       <c r="C99" s="98" t="s">
         <v>219</v>
       </c>
@@ -17574,6 +17593,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:M4"/>
+    <mergeCell ref="A91:F93"/>
     <mergeCell ref="B95:B99"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
@@ -17583,11 +17607,6 @@
     <mergeCell ref="A61:F63"/>
     <mergeCell ref="A76:F78"/>
     <mergeCell ref="B80:B89"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:M4"/>
-    <mergeCell ref="A91:F93"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
@@ -17644,32 +17663,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="240" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="240" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="241" t="s">
+      <c r="G1" s="242" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="242" t="s">
+      <c r="H1" s="243" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="J1" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="K1" s="237" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="236" t="s">
+      <c r="L1" s="237" t="s">
         <v>193</v>
       </c>
     </row>
@@ -17689,16 +17708,16 @@
       <c r="E2" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I44),COUNT(I3:I44)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="134">
@@ -18133,13 +18152,13 @@
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="1:14" ht="23.25">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="238" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="213"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
       <c r="F20" s="143"/>
       <c r="G20" s="139"/>
       <c r="H20" s="139"/>
@@ -18609,13 +18628,13 @@
       <c r="N38" s="139"/>
     </row>
     <row r="39" spans="1:14" ht="23.25">
-      <c r="A39" s="238" t="s">
+      <c r="A39" s="239" t="s">
         <v>246</v>
       </c>
-      <c r="B39" s="212"/>
-      <c r="C39" s="212"/>
-      <c r="D39" s="212"/>
-      <c r="E39" s="213"/>
+      <c r="B39" s="213"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="214"/>
       <c r="F39" s="143"/>
       <c r="G39" s="139"/>
       <c r="H39" s="139"/>
@@ -19062,32 +19081,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="244" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="240" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="242" t="s">
+      <c r="G1" s="243" t="s">
         <v>251</v>
       </c>
-      <c r="H1" s="242" t="s">
+      <c r="H1" s="243" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="235" t="s">
+      <c r="J1" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="236" t="s">
+      <c r="K1" s="237" t="s">
         <v>252</v>
       </c>
-      <c r="L1" s="236" t="s">
+      <c r="L1" s="237" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19107,16 +19126,16 @@
       <c r="E2" s="161" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
       <c r="I2" s="133" t="e">
         <f ca="1">ROUND(PRODUCT(divide(SUM(I3:I68),COUNT(I3:I68)),100),2)</f>
         <v>#NAME?</v>
       </c>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="162">
@@ -19709,13 +19728,13 @@
       <c r="L27" s="165"/>
     </row>
     <row r="28" spans="1:12" ht="23.25">
-      <c r="A28" s="243" t="s">
+      <c r="A28" s="244" t="s">
         <v>279</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="213"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
       <c r="F28" s="165"/>
       <c r="G28" s="165"/>
       <c r="H28" s="165"/>
@@ -20051,13 +20070,13 @@
       <c r="L42" s="165"/>
     </row>
     <row r="43" spans="1:12" ht="23.25">
-      <c r="A43" s="243" t="s">
+      <c r="A43" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
-      <c r="D43" s="212"/>
-      <c r="E43" s="213"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="214"/>
       <c r="F43" s="165"/>
       <c r="G43" s="165"/>
       <c r="H43" s="165"/>
@@ -20249,13 +20268,13 @@
       <c r="L51" s="165"/>
     </row>
     <row r="52" spans="1:12" ht="23.25">
-      <c r="A52" s="243" t="s">
+      <c r="A52" s="244" t="s">
         <v>159</v>
       </c>
-      <c r="B52" s="212"/>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="213"/>
+      <c r="B52" s="213"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="214"/>
       <c r="F52" s="165"/>
       <c r="G52" s="165"/>
       <c r="H52" s="165"/>
@@ -20495,13 +20514,13 @@
       <c r="L62" s="165"/>
     </row>
     <row r="63" spans="1:12" ht="23.25">
-      <c r="A63" s="243" t="s">
+      <c r="A63" s="244" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="212"/>
-      <c r="C63" s="212"/>
-      <c r="D63" s="212"/>
-      <c r="E63" s="213"/>
+      <c r="B63" s="213"/>
+      <c r="C63" s="213"/>
+      <c r="D63" s="213"/>
+      <c r="E63" s="214"/>
       <c r="F63" s="165"/>
       <c r="G63" s="165"/>
       <c r="H63" s="165"/>
@@ -21203,17 +21222,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="J1:J2">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
@@ -21253,20 +21272,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="245" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="213"/>
-      <c r="G1" s="245" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="214"/>
+      <c r="G1" s="246" t="s">
         <v>296</v>
       </c>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="214"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="183" t="s">
